--- a/FEn17_data/w19FirstSamples.xlsx
+++ b/FEn17_data/w19FirstSamples.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="65">
   <si>
     <t>DSC_0002.JPG</t>
   </si>
@@ -183,6 +183,42 @@
   </si>
   <si>
     <t>DSC_0036.JPG</t>
+  </si>
+  <si>
+    <t>DSC_0039.JPG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>DSC_0041.JPG</t>
+  </si>
+  <si>
+    <t>DSC_0043.JPG</t>
+  </si>
+  <si>
+    <t>MysteryTricoptera</t>
+  </si>
+  <si>
+    <t>DSC_0045.JPG</t>
+  </si>
+  <si>
+    <t>DSC_0047.JPG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>DSC_0049.JPG</t>
+  </si>
+  <si>
+    <t>Dip.Tipulidae</t>
+  </si>
+  <si>
+    <t>DSC_0051.JPG</t>
+  </si>
+  <si>
+    <t>DSC_0053.JPG</t>
   </si>
 </sst>
 </file>
@@ -547,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE07EB7-E472-4E8F-9194-B1D8974C6113}">
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="G335" sqref="G335"/>
+    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
+      <selection activeCell="H570" sqref="H546:I570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10248,6 +10284,8039 @@
         <v>3</v>
       </c>
     </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335" t="s">
+        <v>53</v>
+      </c>
+      <c r="C335">
+        <v>81.953999999999994</v>
+      </c>
+      <c r="D335">
+        <v>43.627000000000002</v>
+      </c>
+      <c r="E335">
+        <v>144.29499999999999</v>
+      </c>
+      <c r="F335">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G335" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H335" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I335" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>2</v>
+      </c>
+      <c r="B336" t="s">
+        <v>53</v>
+      </c>
+      <c r="C336">
+        <v>127.977</v>
+      </c>
+      <c r="D336">
+        <v>104.56100000000001</v>
+      </c>
+      <c r="E336">
+        <v>155.33799999999999</v>
+      </c>
+      <c r="F336">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G336" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H336" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I336" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>3</v>
+      </c>
+      <c r="B337" t="s">
+        <v>53</v>
+      </c>
+      <c r="C337">
+        <v>103.548</v>
+      </c>
+      <c r="D337">
+        <v>63.561</v>
+      </c>
+      <c r="E337">
+        <v>140.64599999999999</v>
+      </c>
+      <c r="F337">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G337" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H337" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I337" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>53</v>
+      </c>
+      <c r="C338">
+        <v>95.953000000000003</v>
+      </c>
+      <c r="D338">
+        <v>68.972999999999999</v>
+      </c>
+      <c r="E338">
+        <v>125.643</v>
+      </c>
+      <c r="F338">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G338" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H338" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I338" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>5</v>
+      </c>
+      <c r="B339" t="s">
+        <v>53</v>
+      </c>
+      <c r="C339">
+        <v>69.706000000000003</v>
+      </c>
+      <c r="D339">
+        <v>48.46</v>
+      </c>
+      <c r="E339">
+        <v>124.727</v>
+      </c>
+      <c r="F339">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G339" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H339" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I339" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>6</v>
+      </c>
+      <c r="B340" t="s">
+        <v>53</v>
+      </c>
+      <c r="C340">
+        <v>60.246000000000002</v>
+      </c>
+      <c r="D340">
+        <v>32.633000000000003</v>
+      </c>
+      <c r="E340">
+        <v>199.14099999999999</v>
+      </c>
+      <c r="F340">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G340" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H340" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I340" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>7</v>
+      </c>
+      <c r="B341" t="s">
+        <v>53</v>
+      </c>
+      <c r="C341">
+        <v>127.571</v>
+      </c>
+      <c r="D341">
+        <v>107.43899999999999</v>
+      </c>
+      <c r="E341">
+        <v>144.08000000000001</v>
+      </c>
+      <c r="F341">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G341" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H341" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I341" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>8</v>
+      </c>
+      <c r="B342" t="s">
+        <v>53</v>
+      </c>
+      <c r="C342">
+        <v>111.97</v>
+      </c>
+      <c r="D342">
+        <v>78.465999999999994</v>
+      </c>
+      <c r="E342">
+        <v>143.54900000000001</v>
+      </c>
+      <c r="F342">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G342" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H342" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I342" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>53</v>
+      </c>
+      <c r="C343">
+        <v>62.32</v>
+      </c>
+      <c r="D343">
+        <v>38.043999999999997</v>
+      </c>
+      <c r="E343">
+        <v>113.849</v>
+      </c>
+      <c r="F343">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G343" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H343" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I343" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>53</v>
+      </c>
+      <c r="C344">
+        <v>80.248999999999995</v>
+      </c>
+      <c r="D344">
+        <v>39.664000000000001</v>
+      </c>
+      <c r="E344">
+        <v>141.333</v>
+      </c>
+      <c r="F344">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G344" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H344" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I344" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345" t="s">
+        <v>53</v>
+      </c>
+      <c r="C345">
+        <v>57.134999999999998</v>
+      </c>
+      <c r="D345">
+        <v>16.332999999999998</v>
+      </c>
+      <c r="E345">
+        <v>111.717</v>
+      </c>
+      <c r="F345">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G345" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I345" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>2</v>
+      </c>
+      <c r="B346" t="s">
+        <v>53</v>
+      </c>
+      <c r="C346">
+        <v>49.994999999999997</v>
+      </c>
+      <c r="D346">
+        <v>20.667999999999999</v>
+      </c>
+      <c r="E346">
+        <v>176.239</v>
+      </c>
+      <c r="F346">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G346" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I346" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>3</v>
+      </c>
+      <c r="B347" t="s">
+        <v>53</v>
+      </c>
+      <c r="C347">
+        <v>86.08</v>
+      </c>
+      <c r="D347">
+        <v>50.222000000000001</v>
+      </c>
+      <c r="E347">
+        <v>113.745</v>
+      </c>
+      <c r="F347">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G347" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H347" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I347" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>53</v>
+      </c>
+      <c r="C348">
+        <v>50.017000000000003</v>
+      </c>
+      <c r="D348">
+        <v>21.574999999999999</v>
+      </c>
+      <c r="E348">
+        <v>95.667000000000002</v>
+      </c>
+      <c r="F348">
+        <v>0.35</v>
+      </c>
+      <c r="G348" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I348" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>5</v>
+      </c>
+      <c r="B349" t="s">
+        <v>53</v>
+      </c>
+      <c r="C349">
+        <v>129.69499999999999</v>
+      </c>
+      <c r="D349">
+        <v>75.039000000000001</v>
+      </c>
+      <c r="E349">
+        <v>254.279</v>
+      </c>
+      <c r="F349">
+        <v>0.156</v>
+      </c>
+      <c r="G349" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H349" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I349" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>6</v>
+      </c>
+      <c r="B350" t="s">
+        <v>53</v>
+      </c>
+      <c r="C350">
+        <v>67.643000000000001</v>
+      </c>
+      <c r="D350">
+        <v>32.89</v>
+      </c>
+      <c r="E350">
+        <v>182.28800000000001</v>
+      </c>
+      <c r="F350">
+        <v>0.25</v>
+      </c>
+      <c r="G350" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I350" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>7</v>
+      </c>
+      <c r="B351" t="s">
+        <v>53</v>
+      </c>
+      <c r="C351">
+        <v>71.216999999999999</v>
+      </c>
+      <c r="D351">
+        <v>26.454000000000001</v>
+      </c>
+      <c r="E351">
+        <v>131.77699999999999</v>
+      </c>
+      <c r="F351">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G351" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H351" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I351" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>8</v>
+      </c>
+      <c r="B352" t="s">
+        <v>53</v>
+      </c>
+      <c r="C352">
+        <v>67.091999999999999</v>
+      </c>
+      <c r="D352">
+        <v>38.073</v>
+      </c>
+      <c r="E352">
+        <v>138.333</v>
+      </c>
+      <c r="F352">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="G352" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I352" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>53</v>
+      </c>
+      <c r="C353">
+        <v>79.433000000000007</v>
+      </c>
+      <c r="D353">
+        <v>31.187999999999999</v>
+      </c>
+      <c r="E353">
+        <v>121.952</v>
+      </c>
+      <c r="F353">
+        <v>0.219</v>
+      </c>
+      <c r="G353" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H353" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I353" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>10</v>
+      </c>
+      <c r="B354" t="s">
+        <v>53</v>
+      </c>
+      <c r="C354">
+        <v>90.278000000000006</v>
+      </c>
+      <c r="D354">
+        <v>47.262999999999998</v>
+      </c>
+      <c r="E354">
+        <v>152.06100000000001</v>
+      </c>
+      <c r="F354">
+        <v>0.183</v>
+      </c>
+      <c r="G354" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H354" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I354" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>53</v>
+      </c>
+      <c r="C355">
+        <v>66.358000000000004</v>
+      </c>
+      <c r="D355">
+        <v>41.021999999999998</v>
+      </c>
+      <c r="E355">
+        <v>92.367999999999995</v>
+      </c>
+      <c r="F355">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G355" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H355" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I355" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
+        <v>53</v>
+      </c>
+      <c r="C356">
+        <v>49.533000000000001</v>
+      </c>
+      <c r="D356">
+        <v>30.913</v>
+      </c>
+      <c r="E356">
+        <v>71.015000000000001</v>
+      </c>
+      <c r="F356">
+        <v>0.22</v>
+      </c>
+      <c r="G356" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H356" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I356" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>13</v>
+      </c>
+      <c r="B357" t="s">
+        <v>53</v>
+      </c>
+      <c r="C357">
+        <v>69.224000000000004</v>
+      </c>
+      <c r="D357">
+        <v>29.334</v>
+      </c>
+      <c r="E357">
+        <v>131.36600000000001</v>
+      </c>
+      <c r="F357">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G357" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H357" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I357" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s">
+        <v>53</v>
+      </c>
+      <c r="C358">
+        <v>48.631</v>
+      </c>
+      <c r="D358">
+        <v>36.68</v>
+      </c>
+      <c r="E358">
+        <v>64.245999999999995</v>
+      </c>
+      <c r="F358">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G358" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H358" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I358" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>15</v>
+      </c>
+      <c r="B359" t="s">
+        <v>53</v>
+      </c>
+      <c r="C359">
+        <v>65.658000000000001</v>
+      </c>
+      <c r="D359">
+        <v>21.367999999999999</v>
+      </c>
+      <c r="E359">
+        <v>145.45400000000001</v>
+      </c>
+      <c r="F359">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G359" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H359" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I359" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>16</v>
+      </c>
+      <c r="B360" t="s">
+        <v>53</v>
+      </c>
+      <c r="C360">
+        <v>57.929000000000002</v>
+      </c>
+      <c r="D360">
+        <v>23.423999999999999</v>
+      </c>
+      <c r="E360">
+        <v>97.432000000000002</v>
+      </c>
+      <c r="F360">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G360" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H360" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I360" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>17</v>
+      </c>
+      <c r="B361" t="s">
+        <v>53</v>
+      </c>
+      <c r="C361">
+        <v>48.612000000000002</v>
+      </c>
+      <c r="D361">
+        <v>30.53</v>
+      </c>
+      <c r="E361">
+        <v>75.944000000000003</v>
+      </c>
+      <c r="F361">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G361" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H361" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I361" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>18</v>
+      </c>
+      <c r="B362" t="s">
+        <v>53</v>
+      </c>
+      <c r="C362">
+        <v>60.63</v>
+      </c>
+      <c r="D362">
+        <v>38.619</v>
+      </c>
+      <c r="E362">
+        <v>138.41200000000001</v>
+      </c>
+      <c r="F362">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G362" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H362" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I362" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>19</v>
+      </c>
+      <c r="B363" t="s">
+        <v>53</v>
+      </c>
+      <c r="C363">
+        <v>79.912999999999997</v>
+      </c>
+      <c r="D363">
+        <v>45.521999999999998</v>
+      </c>
+      <c r="E363">
+        <v>98.994</v>
+      </c>
+      <c r="F363">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G363" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H363" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I363" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>20</v>
+      </c>
+      <c r="B364" t="s">
+        <v>53</v>
+      </c>
+      <c r="C364">
+        <v>53.777999999999999</v>
+      </c>
+      <c r="D364">
+        <v>29.207000000000001</v>
+      </c>
+      <c r="E364">
+        <v>97.617999999999995</v>
+      </c>
+      <c r="F364">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G364" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H364" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I364" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>21</v>
+      </c>
+      <c r="B365" t="s">
+        <v>53</v>
+      </c>
+      <c r="C365">
+        <v>58.118000000000002</v>
+      </c>
+      <c r="D365">
+        <v>43.372999999999998</v>
+      </c>
+      <c r="E365">
+        <v>78.372</v>
+      </c>
+      <c r="F365">
+        <v>0.18</v>
+      </c>
+      <c r="G365" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H365" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I365" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>53</v>
+      </c>
+      <c r="C366">
+        <v>51.024999999999999</v>
+      </c>
+      <c r="D366">
+        <v>25.806999999999999</v>
+      </c>
+      <c r="E366">
+        <v>105.38500000000001</v>
+      </c>
+      <c r="F366">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G366" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H366" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I366" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367" t="s">
+        <v>53</v>
+      </c>
+      <c r="C367">
+        <v>50.798999999999999</v>
+      </c>
+      <c r="D367">
+        <v>31.673999999999999</v>
+      </c>
+      <c r="E367">
+        <v>113.62</v>
+      </c>
+      <c r="F367">
+        <v>0.21</v>
+      </c>
+      <c r="G367" t="s">
+        <v>11</v>
+      </c>
+      <c r="H367" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I367" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>2</v>
+      </c>
+      <c r="B368" t="s">
+        <v>53</v>
+      </c>
+      <c r="C368">
+        <v>31.893999999999998</v>
+      </c>
+      <c r="D368">
+        <v>10.255000000000001</v>
+      </c>
+      <c r="E368">
+        <v>249.09100000000001</v>
+      </c>
+      <c r="F368">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="G368" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H368" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I368" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>3</v>
+      </c>
+      <c r="B369" t="s">
+        <v>53</v>
+      </c>
+      <c r="C369">
+        <v>65.623000000000005</v>
+      </c>
+      <c r="D369">
+        <v>15.333</v>
+      </c>
+      <c r="E369">
+        <v>254.756</v>
+      </c>
+      <c r="F369">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="G369" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H369" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I369" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>53</v>
+      </c>
+      <c r="C370">
+        <v>28.317</v>
+      </c>
+      <c r="D370">
+        <v>15.135999999999999</v>
+      </c>
+      <c r="E370">
+        <v>101.667</v>
+      </c>
+      <c r="F370">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="G370" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H370" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I370" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>53</v>
+      </c>
+      <c r="C371">
+        <v>54.354999999999997</v>
+      </c>
+      <c r="D371">
+        <v>39.719000000000001</v>
+      </c>
+      <c r="E371">
+        <v>93</v>
+      </c>
+      <c r="F371">
+        <v>0.373</v>
+      </c>
+      <c r="G371" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H371" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I371" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>6</v>
+      </c>
+      <c r="B372" t="s">
+        <v>53</v>
+      </c>
+      <c r="C372">
+        <v>39.671999999999997</v>
+      </c>
+      <c r="D372">
+        <v>25.683</v>
+      </c>
+      <c r="E372">
+        <v>177.37100000000001</v>
+      </c>
+      <c r="F372">
+        <v>1.242</v>
+      </c>
+      <c r="G372" t="s">
+        <v>10</v>
+      </c>
+      <c r="H372" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I372" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>7</v>
+      </c>
+      <c r="B373" t="s">
+        <v>53</v>
+      </c>
+      <c r="C373">
+        <v>14.382999999999999</v>
+      </c>
+      <c r="D373">
+        <v>9</v>
+      </c>
+      <c r="E373">
+        <v>48</v>
+      </c>
+      <c r="F373">
+        <v>0.314</v>
+      </c>
+      <c r="G373" t="s">
+        <v>20</v>
+      </c>
+      <c r="H373" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I373" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>1</v>
+      </c>
+      <c r="B374" t="s">
+        <v>55</v>
+      </c>
+      <c r="C374">
+        <v>60.091000000000001</v>
+      </c>
+      <c r="D374">
+        <v>20.277999999999999</v>
+      </c>
+      <c r="E374">
+        <v>110</v>
+      </c>
+      <c r="F374">
+        <v>0.183</v>
+      </c>
+      <c r="G374" t="s">
+        <v>8</v>
+      </c>
+      <c r="H374" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I374" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>2</v>
+      </c>
+      <c r="B375" t="s">
+        <v>55</v>
+      </c>
+      <c r="C375">
+        <v>62.774999999999999</v>
+      </c>
+      <c r="D375">
+        <v>34.445999999999998</v>
+      </c>
+      <c r="E375">
+        <v>181.57300000000001</v>
+      </c>
+      <c r="F375">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G375" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H375" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I375" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>3</v>
+      </c>
+      <c r="B376" t="s">
+        <v>55</v>
+      </c>
+      <c r="C376">
+        <v>45.843000000000004</v>
+      </c>
+      <c r="D376">
+        <v>17.332999999999998</v>
+      </c>
+      <c r="E376">
+        <v>109.468</v>
+      </c>
+      <c r="F376">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G376" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H376" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I376" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>4</v>
+      </c>
+      <c r="B377" t="s">
+        <v>55</v>
+      </c>
+      <c r="C377">
+        <v>67.974000000000004</v>
+      </c>
+      <c r="D377">
+        <v>36.286999999999999</v>
+      </c>
+      <c r="E377">
+        <v>106.328</v>
+      </c>
+      <c r="F377">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="G377" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H377" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I377" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>55</v>
+      </c>
+      <c r="C378">
+        <v>74.691999999999993</v>
+      </c>
+      <c r="D378">
+        <v>30.227</v>
+      </c>
+      <c r="E378">
+        <v>142.77199999999999</v>
+      </c>
+      <c r="F378">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G378" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H378" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I378" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>6</v>
+      </c>
+      <c r="B379" t="s">
+        <v>55</v>
+      </c>
+      <c r="C379">
+        <v>68.983999999999995</v>
+      </c>
+      <c r="D379">
+        <v>33.021000000000001</v>
+      </c>
+      <c r="E379">
+        <v>113.462</v>
+      </c>
+      <c r="F379">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G379" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H379" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I379" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>7</v>
+      </c>
+      <c r="B380" t="s">
+        <v>55</v>
+      </c>
+      <c r="C380">
+        <v>91.962999999999994</v>
+      </c>
+      <c r="D380">
+        <v>57.429000000000002</v>
+      </c>
+      <c r="E380">
+        <v>123.02800000000001</v>
+      </c>
+      <c r="F380">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G380" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H380" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I380" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>8</v>
+      </c>
+      <c r="B381" t="s">
+        <v>55</v>
+      </c>
+      <c r="C381">
+        <v>64.588999999999999</v>
+      </c>
+      <c r="D381">
+        <v>34.311</v>
+      </c>
+      <c r="E381">
+        <v>90.930999999999997</v>
+      </c>
+      <c r="F381">
+        <v>0.183</v>
+      </c>
+      <c r="G381" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H381" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I381" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>55</v>
+      </c>
+      <c r="C382">
+        <v>52.621000000000002</v>
+      </c>
+      <c r="D382">
+        <v>31.702999999999999</v>
+      </c>
+      <c r="E382">
+        <v>89.18</v>
+      </c>
+      <c r="F382">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G382" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H382" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I382" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>10</v>
+      </c>
+      <c r="B383" t="s">
+        <v>55</v>
+      </c>
+      <c r="C383">
+        <v>76.597999999999999</v>
+      </c>
+      <c r="D383">
+        <v>45.207000000000001</v>
+      </c>
+      <c r="E383">
+        <v>142.75800000000001</v>
+      </c>
+      <c r="F383">
+        <v>0.192</v>
+      </c>
+      <c r="G383" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H383" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I383" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>11</v>
+      </c>
+      <c r="B384" t="s">
+        <v>55</v>
+      </c>
+      <c r="C384">
+        <v>40.145000000000003</v>
+      </c>
+      <c r="D384">
+        <v>24.433</v>
+      </c>
+      <c r="E384">
+        <v>83.762</v>
+      </c>
+      <c r="F384">
+        <v>0.158</v>
+      </c>
+      <c r="G384" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H384" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I384" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>12</v>
+      </c>
+      <c r="B385" t="s">
+        <v>55</v>
+      </c>
+      <c r="C385">
+        <v>68.176000000000002</v>
+      </c>
+      <c r="D385">
+        <v>33.816000000000003</v>
+      </c>
+      <c r="E385">
+        <v>111.855</v>
+      </c>
+      <c r="F385">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G385" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H385" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I385" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>13</v>
+      </c>
+      <c r="B386" t="s">
+        <v>55</v>
+      </c>
+      <c r="C386">
+        <v>67.504999999999995</v>
+      </c>
+      <c r="D386">
+        <v>34.506</v>
+      </c>
+      <c r="E386">
+        <v>113.048</v>
+      </c>
+      <c r="F386">
+        <v>0.188</v>
+      </c>
+      <c r="G386" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H386" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I386" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>14</v>
+      </c>
+      <c r="B387" t="s">
+        <v>55</v>
+      </c>
+      <c r="C387">
+        <v>69.927999999999997</v>
+      </c>
+      <c r="D387">
+        <v>32.607999999999997</v>
+      </c>
+      <c r="E387">
+        <v>119.51300000000001</v>
+      </c>
+      <c r="F387">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G387" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H387" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I387" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>15</v>
+      </c>
+      <c r="B388" t="s">
+        <v>55</v>
+      </c>
+      <c r="C388">
+        <v>76.364999999999995</v>
+      </c>
+      <c r="D388">
+        <v>23.757000000000001</v>
+      </c>
+      <c r="E388">
+        <v>149.20699999999999</v>
+      </c>
+      <c r="F388">
+        <v>0.254</v>
+      </c>
+      <c r="G388" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H388" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I388" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>16</v>
+      </c>
+      <c r="B389" t="s">
+        <v>55</v>
+      </c>
+      <c r="C389">
+        <v>39.71</v>
+      </c>
+      <c r="D389">
+        <v>15.965</v>
+      </c>
+      <c r="E389">
+        <v>86.12</v>
+      </c>
+      <c r="F389">
+        <v>0.51</v>
+      </c>
+      <c r="G389" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H389" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I389" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>17</v>
+      </c>
+      <c r="B390" t="s">
+        <v>55</v>
+      </c>
+      <c r="C390">
+        <v>55.613999999999997</v>
+      </c>
+      <c r="D390">
+        <v>28.474</v>
+      </c>
+      <c r="E390">
+        <v>138</v>
+      </c>
+      <c r="F390">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G390" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H390" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I390" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>18</v>
+      </c>
+      <c r="B391" t="s">
+        <v>55</v>
+      </c>
+      <c r="C391">
+        <v>50.500999999999998</v>
+      </c>
+      <c r="D391">
+        <v>23.254999999999999</v>
+      </c>
+      <c r="E391">
+        <v>68.100999999999999</v>
+      </c>
+      <c r="F391">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="G391" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H391" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I391" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>19</v>
+      </c>
+      <c r="B392" t="s">
+        <v>55</v>
+      </c>
+      <c r="C392">
+        <v>35.969000000000001</v>
+      </c>
+      <c r="D392">
+        <v>16.821000000000002</v>
+      </c>
+      <c r="E392">
+        <v>70.683999999999997</v>
+      </c>
+      <c r="F392">
+        <v>0.747</v>
+      </c>
+      <c r="G392" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H392" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I392" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>20</v>
+      </c>
+      <c r="B393" t="s">
+        <v>55</v>
+      </c>
+      <c r="C393">
+        <v>80.058999999999997</v>
+      </c>
+      <c r="D393">
+        <v>38.188000000000002</v>
+      </c>
+      <c r="E393">
+        <v>133.44900000000001</v>
+      </c>
+      <c r="F393">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G393" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H393" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I393" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>21</v>
+      </c>
+      <c r="B394" t="s">
+        <v>55</v>
+      </c>
+      <c r="C394">
+        <v>72.971000000000004</v>
+      </c>
+      <c r="D394">
+        <v>37.293999999999997</v>
+      </c>
+      <c r="E394">
+        <v>100.699</v>
+      </c>
+      <c r="F394">
+        <v>0.215</v>
+      </c>
+      <c r="G394" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H394" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I394" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>22</v>
+      </c>
+      <c r="B395" t="s">
+        <v>55</v>
+      </c>
+      <c r="C395">
+        <v>40.731999999999999</v>
+      </c>
+      <c r="D395">
+        <v>27.55</v>
+      </c>
+      <c r="E395">
+        <v>60.216000000000001</v>
+      </c>
+      <c r="F395">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G395" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H395" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I395" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>23</v>
+      </c>
+      <c r="B396" t="s">
+        <v>55</v>
+      </c>
+      <c r="C396">
+        <v>66.153999999999996</v>
+      </c>
+      <c r="D396">
+        <v>40.381999999999998</v>
+      </c>
+      <c r="E396">
+        <v>92.534000000000006</v>
+      </c>
+      <c r="F396">
+        <v>0.154</v>
+      </c>
+      <c r="G396" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H396" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I396" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>1</v>
+      </c>
+      <c r="B397" t="s">
+        <v>55</v>
+      </c>
+      <c r="C397">
+        <v>75.965999999999994</v>
+      </c>
+      <c r="D397">
+        <v>46</v>
+      </c>
+      <c r="E397">
+        <v>102.223</v>
+      </c>
+      <c r="F397">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G397" t="s">
+        <v>11</v>
+      </c>
+      <c r="H397" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I397" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>2</v>
+      </c>
+      <c r="B398" t="s">
+        <v>55</v>
+      </c>
+      <c r="C398">
+        <v>35.357999999999997</v>
+      </c>
+      <c r="D398">
+        <v>8.1389999999999993</v>
+      </c>
+      <c r="E398">
+        <v>247.92099999999999</v>
+      </c>
+      <c r="F398">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="G398" t="s">
+        <v>11</v>
+      </c>
+      <c r="H398" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I398" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>3</v>
+      </c>
+      <c r="B399" t="s">
+        <v>55</v>
+      </c>
+      <c r="C399">
+        <v>129.423</v>
+      </c>
+      <c r="D399">
+        <v>46.006</v>
+      </c>
+      <c r="E399">
+        <v>255</v>
+      </c>
+      <c r="F399">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G399" t="s">
+        <v>11</v>
+      </c>
+      <c r="H399" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I399" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>4</v>
+      </c>
+      <c r="B400" t="s">
+        <v>55</v>
+      </c>
+      <c r="C400">
+        <v>73.143000000000001</v>
+      </c>
+      <c r="D400">
+        <v>51.844000000000001</v>
+      </c>
+      <c r="E400">
+        <v>108.667</v>
+      </c>
+      <c r="F400">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G400" t="s">
+        <v>11</v>
+      </c>
+      <c r="H400" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I400" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>5</v>
+      </c>
+      <c r="B401" t="s">
+        <v>55</v>
+      </c>
+      <c r="C401">
+        <v>87.591999999999999</v>
+      </c>
+      <c r="D401">
+        <v>58.456000000000003</v>
+      </c>
+      <c r="E401">
+        <v>132.232</v>
+      </c>
+      <c r="F401">
+        <v>0.214</v>
+      </c>
+      <c r="G401" t="s">
+        <v>9</v>
+      </c>
+      <c r="H401" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I401" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>6</v>
+      </c>
+      <c r="B402" t="s">
+        <v>55</v>
+      </c>
+      <c r="C402">
+        <v>84.188999999999993</v>
+      </c>
+      <c r="D402">
+        <v>61.290999999999997</v>
+      </c>
+      <c r="E402">
+        <v>108</v>
+      </c>
+      <c r="F402">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G402" t="s">
+        <v>10</v>
+      </c>
+      <c r="H402" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I402" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>7</v>
+      </c>
+      <c r="B403" t="s">
+        <v>55</v>
+      </c>
+      <c r="C403">
+        <v>67.790999999999997</v>
+      </c>
+      <c r="D403">
+        <v>35.439</v>
+      </c>
+      <c r="E403">
+        <v>111.599</v>
+      </c>
+      <c r="F403">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G403" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H403" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I403" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>1</v>
+      </c>
+      <c r="B404" t="s">
+        <v>55</v>
+      </c>
+      <c r="C404">
+        <v>76.247</v>
+      </c>
+      <c r="D404">
+        <v>46.067</v>
+      </c>
+      <c r="E404">
+        <v>124.983</v>
+      </c>
+      <c r="F404">
+        <v>0.2</v>
+      </c>
+      <c r="G404" t="s">
+        <v>36</v>
+      </c>
+      <c r="H404" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I404" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>2</v>
+      </c>
+      <c r="B405" t="s">
+        <v>55</v>
+      </c>
+      <c r="C405">
+        <v>95.293999999999997</v>
+      </c>
+      <c r="D405">
+        <v>52.045000000000002</v>
+      </c>
+      <c r="E405">
+        <v>170.559</v>
+      </c>
+      <c r="F405">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G405" t="s">
+        <v>36</v>
+      </c>
+      <c r="H405" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I405" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>3</v>
+      </c>
+      <c r="B406" t="s">
+        <v>55</v>
+      </c>
+      <c r="C406">
+        <v>21.69</v>
+      </c>
+      <c r="D406">
+        <v>10.333</v>
+      </c>
+      <c r="E406">
+        <v>106.333</v>
+      </c>
+      <c r="F406">
+        <v>0.621</v>
+      </c>
+      <c r="G406" t="s">
+        <v>29</v>
+      </c>
+      <c r="H406" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I406" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>1</v>
+      </c>
+      <c r="B407" t="s">
+        <v>55</v>
+      </c>
+      <c r="C407">
+        <v>75.995999999999995</v>
+      </c>
+      <c r="D407">
+        <v>48.710999999999999</v>
+      </c>
+      <c r="E407">
+        <v>115</v>
+      </c>
+      <c r="F407">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G407" t="s">
+        <v>13</v>
+      </c>
+      <c r="H407" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I407" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>2</v>
+      </c>
+      <c r="B408" t="s">
+        <v>55</v>
+      </c>
+      <c r="C408">
+        <v>78.334000000000003</v>
+      </c>
+      <c r="D408">
+        <v>53</v>
+      </c>
+      <c r="E408">
+        <v>129.23400000000001</v>
+      </c>
+      <c r="F408">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G408" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H408" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I408" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>3</v>
+      </c>
+      <c r="B409" t="s">
+        <v>55</v>
+      </c>
+      <c r="C409">
+        <v>108.66800000000001</v>
+      </c>
+      <c r="D409">
+        <v>46.023000000000003</v>
+      </c>
+      <c r="E409">
+        <v>142.97800000000001</v>
+      </c>
+      <c r="F409">
+        <v>0.189</v>
+      </c>
+      <c r="G409" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H409" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I409" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>4</v>
+      </c>
+      <c r="B410" t="s">
+        <v>55</v>
+      </c>
+      <c r="C410">
+        <v>98.534000000000006</v>
+      </c>
+      <c r="D410">
+        <v>72.465999999999994</v>
+      </c>
+      <c r="E410">
+        <v>144.46600000000001</v>
+      </c>
+      <c r="F410">
+        <v>0.123</v>
+      </c>
+      <c r="G410" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H410" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I410" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>5</v>
+      </c>
+      <c r="B411" t="s">
+        <v>55</v>
+      </c>
+      <c r="C411">
+        <v>106.8</v>
+      </c>
+      <c r="D411">
+        <v>69.507000000000005</v>
+      </c>
+      <c r="E411">
+        <v>195.238</v>
+      </c>
+      <c r="F411">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G411" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H411" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I411" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>6</v>
+      </c>
+      <c r="B412" t="s">
+        <v>55</v>
+      </c>
+      <c r="C412">
+        <v>89.233999999999995</v>
+      </c>
+      <c r="D412">
+        <v>53.368000000000002</v>
+      </c>
+      <c r="E412">
+        <v>141.667</v>
+      </c>
+      <c r="F412">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G412" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H412" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I412" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>7</v>
+      </c>
+      <c r="B413" t="s">
+        <v>55</v>
+      </c>
+      <c r="C413">
+        <v>85.712000000000003</v>
+      </c>
+      <c r="D413">
+        <v>69.731999999999999</v>
+      </c>
+      <c r="E413">
+        <v>99.95</v>
+      </c>
+      <c r="F413">
+        <v>0.223</v>
+      </c>
+      <c r="G413" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H413" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I413" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>8</v>
+      </c>
+      <c r="B414" t="s">
+        <v>55</v>
+      </c>
+      <c r="C414">
+        <v>97.48</v>
+      </c>
+      <c r="D414">
+        <v>58.494</v>
+      </c>
+      <c r="E414">
+        <v>227.74299999999999</v>
+      </c>
+      <c r="F414">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G414" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H414" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I414" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>9</v>
+      </c>
+      <c r="B415" t="s">
+        <v>55</v>
+      </c>
+      <c r="C415">
+        <v>99.542000000000002</v>
+      </c>
+      <c r="D415">
+        <v>63.106999999999999</v>
+      </c>
+      <c r="E415">
+        <v>140.155</v>
+      </c>
+      <c r="F415">
+        <v>0.157</v>
+      </c>
+      <c r="G415" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H415" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I415" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>10</v>
+      </c>
+      <c r="B416" t="s">
+        <v>55</v>
+      </c>
+      <c r="C416">
+        <v>115.345</v>
+      </c>
+      <c r="D416">
+        <v>83.192999999999998</v>
+      </c>
+      <c r="E416">
+        <v>148.15100000000001</v>
+      </c>
+      <c r="F416">
+        <v>0.125</v>
+      </c>
+      <c r="G416" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H416" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I416" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>11</v>
+      </c>
+      <c r="B417" t="s">
+        <v>55</v>
+      </c>
+      <c r="C417">
+        <v>114.807</v>
+      </c>
+      <c r="D417">
+        <v>70.864999999999995</v>
+      </c>
+      <c r="E417">
+        <v>199.958</v>
+      </c>
+      <c r="F417">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G417" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H417" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I417" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>12</v>
+      </c>
+      <c r="B418" t="s">
+        <v>55</v>
+      </c>
+      <c r="C418">
+        <v>84.956999999999994</v>
+      </c>
+      <c r="D418">
+        <v>55.093000000000004</v>
+      </c>
+      <c r="E418">
+        <v>210.428</v>
+      </c>
+      <c r="F418">
+        <v>0.34</v>
+      </c>
+      <c r="G418" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H418" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I418" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>13</v>
+      </c>
+      <c r="B419" t="s">
+        <v>55</v>
+      </c>
+      <c r="C419">
+        <v>58.046999999999997</v>
+      </c>
+      <c r="D419">
+        <v>28.766999999999999</v>
+      </c>
+      <c r="E419">
+        <v>135.87200000000001</v>
+      </c>
+      <c r="F419">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G419" t="s">
+        <v>27</v>
+      </c>
+      <c r="H419" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I419" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>1</v>
+      </c>
+      <c r="B420" t="s">
+        <v>56</v>
+      </c>
+      <c r="C420">
+        <v>86.260999999999996</v>
+      </c>
+      <c r="D420">
+        <v>18.38</v>
+      </c>
+      <c r="E420">
+        <v>255</v>
+      </c>
+      <c r="F420">
+        <v>0.63</v>
+      </c>
+      <c r="G420" t="s">
+        <v>8</v>
+      </c>
+      <c r="H420" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I420" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>2</v>
+      </c>
+      <c r="B421" t="s">
+        <v>56</v>
+      </c>
+      <c r="C421">
+        <v>48.015999999999998</v>
+      </c>
+      <c r="D421">
+        <v>18.388000000000002</v>
+      </c>
+      <c r="E421">
+        <v>99.757000000000005</v>
+      </c>
+      <c r="F421">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="G421" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H421" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I421" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>3</v>
+      </c>
+      <c r="B422" t="s">
+        <v>56</v>
+      </c>
+      <c r="C422">
+        <v>87.26</v>
+      </c>
+      <c r="D422">
+        <v>55.676000000000002</v>
+      </c>
+      <c r="E422">
+        <v>185.11099999999999</v>
+      </c>
+      <c r="F422">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="G422" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H422" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I422" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>4</v>
+      </c>
+      <c r="B423" t="s">
+        <v>56</v>
+      </c>
+      <c r="C423">
+        <v>64.522999999999996</v>
+      </c>
+      <c r="D423">
+        <v>38.030999999999999</v>
+      </c>
+      <c r="E423">
+        <v>143.11799999999999</v>
+      </c>
+      <c r="F423">
+        <v>0.193</v>
+      </c>
+      <c r="G423" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H423" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I423" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>5</v>
+      </c>
+      <c r="B424" t="s">
+        <v>56</v>
+      </c>
+      <c r="C424">
+        <v>74.222999999999999</v>
+      </c>
+      <c r="D424">
+        <v>44.405999999999999</v>
+      </c>
+      <c r="E424">
+        <v>101.026</v>
+      </c>
+      <c r="F424">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G424" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H424" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I424" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>6</v>
+      </c>
+      <c r="B425" t="s">
+        <v>56</v>
+      </c>
+      <c r="C425">
+        <v>83.926000000000002</v>
+      </c>
+      <c r="D425">
+        <v>38.539000000000001</v>
+      </c>
+      <c r="E425">
+        <v>122.94499999999999</v>
+      </c>
+      <c r="F425">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G425" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H425" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I425" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>7</v>
+      </c>
+      <c r="B426" t="s">
+        <v>56</v>
+      </c>
+      <c r="C426">
+        <v>54.156999999999996</v>
+      </c>
+      <c r="D426">
+        <v>32.521999999999998</v>
+      </c>
+      <c r="E426">
+        <v>96.787000000000006</v>
+      </c>
+      <c r="F426">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G426" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H426" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I426" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>8</v>
+      </c>
+      <c r="B427" t="s">
+        <v>56</v>
+      </c>
+      <c r="C427">
+        <v>70.87</v>
+      </c>
+      <c r="D427">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="E427">
+        <v>92.643000000000001</v>
+      </c>
+      <c r="F427">
+        <v>0.192</v>
+      </c>
+      <c r="G427" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H427" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I427" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>9</v>
+      </c>
+      <c r="B428" t="s">
+        <v>56</v>
+      </c>
+      <c r="C428">
+        <v>89.549000000000007</v>
+      </c>
+      <c r="D428">
+        <v>46.347000000000001</v>
+      </c>
+      <c r="E428">
+        <v>139.667</v>
+      </c>
+      <c r="F428">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G428" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H428" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I428" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>10</v>
+      </c>
+      <c r="B429" t="s">
+        <v>56</v>
+      </c>
+      <c r="C429">
+        <v>79.650999999999996</v>
+      </c>
+      <c r="D429">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="E429">
+        <v>105.43300000000001</v>
+      </c>
+      <c r="F429">
+        <v>0.221</v>
+      </c>
+      <c r="G429" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H429" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I429" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>11</v>
+      </c>
+      <c r="B430" t="s">
+        <v>56</v>
+      </c>
+      <c r="C430">
+        <v>57.499000000000002</v>
+      </c>
+      <c r="D430">
+        <v>15.592000000000001</v>
+      </c>
+      <c r="E430">
+        <v>99.863</v>
+      </c>
+      <c r="F430">
+        <v>0.25</v>
+      </c>
+      <c r="G430" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H430" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I430" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>12</v>
+      </c>
+      <c r="B431" t="s">
+        <v>56</v>
+      </c>
+      <c r="C431">
+        <v>43.164000000000001</v>
+      </c>
+      <c r="D431">
+        <v>19.295999999999999</v>
+      </c>
+      <c r="E431">
+        <v>125.556</v>
+      </c>
+      <c r="F431">
+        <v>0.435</v>
+      </c>
+      <c r="G431" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H431" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I431" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>13</v>
+      </c>
+      <c r="B432" t="s">
+        <v>56</v>
+      </c>
+      <c r="C432">
+        <v>70.849000000000004</v>
+      </c>
+      <c r="D432">
+        <v>44.067</v>
+      </c>
+      <c r="E432">
+        <v>158.114</v>
+      </c>
+      <c r="F432">
+        <v>0.26</v>
+      </c>
+      <c r="G432" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H432" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I432" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>14</v>
+      </c>
+      <c r="B433" t="s">
+        <v>56</v>
+      </c>
+      <c r="C433">
+        <v>90.013999999999996</v>
+      </c>
+      <c r="D433">
+        <v>56.332999999999998</v>
+      </c>
+      <c r="E433">
+        <v>134.09399999999999</v>
+      </c>
+      <c r="F433">
+        <v>0.157</v>
+      </c>
+      <c r="G433" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H433" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I433" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>15</v>
+      </c>
+      <c r="B434" t="s">
+        <v>56</v>
+      </c>
+      <c r="C434">
+        <v>92.305000000000007</v>
+      </c>
+      <c r="D434">
+        <v>38.424999999999997</v>
+      </c>
+      <c r="E434">
+        <v>151.25700000000001</v>
+      </c>
+      <c r="F434">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G434" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H434" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I434" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>16</v>
+      </c>
+      <c r="B435" t="s">
+        <v>56</v>
+      </c>
+      <c r="C435">
+        <v>65.352999999999994</v>
+      </c>
+      <c r="D435">
+        <v>31.239000000000001</v>
+      </c>
+      <c r="E435">
+        <v>129.35300000000001</v>
+      </c>
+      <c r="F435">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="G435" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H435" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I435" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>17</v>
+      </c>
+      <c r="B436" t="s">
+        <v>56</v>
+      </c>
+      <c r="C436">
+        <v>61.347000000000001</v>
+      </c>
+      <c r="D436">
+        <v>47.332999999999998</v>
+      </c>
+      <c r="E436">
+        <v>92.332999999999998</v>
+      </c>
+      <c r="F436">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G436" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H436" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I436" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>18</v>
+      </c>
+      <c r="B437" t="s">
+        <v>56</v>
+      </c>
+      <c r="C437">
+        <v>82.852999999999994</v>
+      </c>
+      <c r="D437">
+        <v>56.359000000000002</v>
+      </c>
+      <c r="E437">
+        <v>154</v>
+      </c>
+      <c r="F437">
+        <v>0.123</v>
+      </c>
+      <c r="G437" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H437" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I437" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>19</v>
+      </c>
+      <c r="B438" t="s">
+        <v>56</v>
+      </c>
+      <c r="C438">
+        <v>90.138000000000005</v>
+      </c>
+      <c r="D438">
+        <v>48.579000000000001</v>
+      </c>
+      <c r="E438">
+        <v>123.48699999999999</v>
+      </c>
+      <c r="F438">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G438" t="s">
+        <v>9</v>
+      </c>
+      <c r="H438" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I438" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>20</v>
+      </c>
+      <c r="B439" t="s">
+        <v>56</v>
+      </c>
+      <c r="C439">
+        <v>84.438999999999993</v>
+      </c>
+      <c r="D439">
+        <v>60.777999999999999</v>
+      </c>
+      <c r="E439">
+        <v>113.28700000000001</v>
+      </c>
+      <c r="F439">
+        <v>0.25</v>
+      </c>
+      <c r="G439" t="s">
+        <v>9</v>
+      </c>
+      <c r="H439" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I439" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>1</v>
+      </c>
+      <c r="B440" t="s">
+        <v>56</v>
+      </c>
+      <c r="C440">
+        <v>80.891999999999996</v>
+      </c>
+      <c r="D440">
+        <v>51.695999999999998</v>
+      </c>
+      <c r="E440">
+        <v>111.33</v>
+      </c>
+      <c r="F440">
+        <v>0.309</v>
+      </c>
+      <c r="G440" t="s">
+        <v>13</v>
+      </c>
+      <c r="H440" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I440" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>2</v>
+      </c>
+      <c r="B441" t="s">
+        <v>56</v>
+      </c>
+      <c r="C441">
+        <v>82.156999999999996</v>
+      </c>
+      <c r="D441">
+        <v>50.484000000000002</v>
+      </c>
+      <c r="E441">
+        <v>142.333</v>
+      </c>
+      <c r="F441">
+        <v>0.376</v>
+      </c>
+      <c r="G441" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H441" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I441" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>3</v>
+      </c>
+      <c r="B442" t="s">
+        <v>56</v>
+      </c>
+      <c r="C442">
+        <v>73.287999999999997</v>
+      </c>
+      <c r="D442">
+        <v>51.692999999999998</v>
+      </c>
+      <c r="E442">
+        <v>115.10899999999999</v>
+      </c>
+      <c r="F442">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G442" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H442" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I442" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443" t="s">
+        <v>56</v>
+      </c>
+      <c r="C443">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D443">
+        <v>30.67</v>
+      </c>
+      <c r="E443">
+        <v>103</v>
+      </c>
+      <c r="F443">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G443" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H443" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I443" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>5</v>
+      </c>
+      <c r="B444" t="s">
+        <v>56</v>
+      </c>
+      <c r="C444">
+        <v>83.462000000000003</v>
+      </c>
+      <c r="D444">
+        <v>69.989000000000004</v>
+      </c>
+      <c r="E444">
+        <v>114.074</v>
+      </c>
+      <c r="F444">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G444" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H444" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I444" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>6</v>
+      </c>
+      <c r="B445" t="s">
+        <v>56</v>
+      </c>
+      <c r="C445">
+        <v>81.081000000000003</v>
+      </c>
+      <c r="D445">
+        <v>42.737000000000002</v>
+      </c>
+      <c r="E445">
+        <v>144.786</v>
+      </c>
+      <c r="F445">
+        <v>0.254</v>
+      </c>
+      <c r="G445" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H445" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I445" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>7</v>
+      </c>
+      <c r="B446" t="s">
+        <v>56</v>
+      </c>
+      <c r="C446">
+        <v>60.15</v>
+      </c>
+      <c r="D446">
+        <v>33.35</v>
+      </c>
+      <c r="E446">
+        <v>78.335999999999999</v>
+      </c>
+      <c r="F446">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G446" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H446" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I446" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>8</v>
+      </c>
+      <c r="B447" t="s">
+        <v>56</v>
+      </c>
+      <c r="C447">
+        <v>81.674000000000007</v>
+      </c>
+      <c r="D447">
+        <v>31.582000000000001</v>
+      </c>
+      <c r="E447">
+        <v>146.5</v>
+      </c>
+      <c r="F447">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G447" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H447" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I447" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>1</v>
+      </c>
+      <c r="B448" t="s">
+        <v>56</v>
+      </c>
+      <c r="C448">
+        <v>56.335000000000001</v>
+      </c>
+      <c r="D448">
+        <v>34.771000000000001</v>
+      </c>
+      <c r="E448">
+        <v>254.94399999999999</v>
+      </c>
+      <c r="F448">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G448" t="s">
+        <v>43</v>
+      </c>
+      <c r="H448" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I448" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>2</v>
+      </c>
+      <c r="B449" t="s">
+        <v>56</v>
+      </c>
+      <c r="C449">
+        <v>45.281999999999996</v>
+      </c>
+      <c r="D449">
+        <v>25.61</v>
+      </c>
+      <c r="E449">
+        <v>99.631</v>
+      </c>
+      <c r="F449">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G449" t="s">
+        <v>11</v>
+      </c>
+      <c r="H449" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I449" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>3</v>
+      </c>
+      <c r="B450" t="s">
+        <v>56</v>
+      </c>
+      <c r="C450">
+        <v>38.747</v>
+      </c>
+      <c r="D450">
+        <v>12.316000000000001</v>
+      </c>
+      <c r="E450">
+        <v>62.232999999999997</v>
+      </c>
+      <c r="F450">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="G450" t="s">
+        <v>32</v>
+      </c>
+      <c r="H450" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I450" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>4</v>
+      </c>
+      <c r="B451" t="s">
+        <v>56</v>
+      </c>
+      <c r="C451">
+        <v>53.88</v>
+      </c>
+      <c r="D451">
+        <v>17.529</v>
+      </c>
+      <c r="E451">
+        <v>145.39500000000001</v>
+      </c>
+      <c r="F451">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G451" t="s">
+        <v>29</v>
+      </c>
+      <c r="H451" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I451" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>5</v>
+      </c>
+      <c r="B452" t="s">
+        <v>56</v>
+      </c>
+      <c r="C452">
+        <v>96.638000000000005</v>
+      </c>
+      <c r="D452">
+        <v>65.376000000000005</v>
+      </c>
+      <c r="E452">
+        <v>151.30600000000001</v>
+      </c>
+      <c r="F452">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G452" t="s">
+        <v>27</v>
+      </c>
+      <c r="H452" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I452" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>6</v>
+      </c>
+      <c r="B453" t="s">
+        <v>56</v>
+      </c>
+      <c r="C453">
+        <v>20.548999999999999</v>
+      </c>
+      <c r="D453">
+        <v>10.907</v>
+      </c>
+      <c r="E453">
+        <v>121.333</v>
+      </c>
+      <c r="F453">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G453" t="s">
+        <v>20</v>
+      </c>
+      <c r="H453" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I453" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>1</v>
+      </c>
+      <c r="B454" t="s">
+        <v>56</v>
+      </c>
+      <c r="C454">
+        <v>81.766000000000005</v>
+      </c>
+      <c r="D454">
+        <v>36.048000000000002</v>
+      </c>
+      <c r="E454">
+        <v>251.42400000000001</v>
+      </c>
+      <c r="F454">
+        <v>0.252</v>
+      </c>
+      <c r="G454" t="s">
+        <v>57</v>
+      </c>
+      <c r="H454" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I454" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>2</v>
+      </c>
+      <c r="B455" t="s">
+        <v>56</v>
+      </c>
+      <c r="C455">
+        <v>82.603999999999999</v>
+      </c>
+      <c r="D455">
+        <v>46.283999999999999</v>
+      </c>
+      <c r="E455">
+        <v>215.46299999999999</v>
+      </c>
+      <c r="F455">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G455" t="s">
+        <v>12</v>
+      </c>
+      <c r="H455" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I455" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>1</v>
+      </c>
+      <c r="B456" t="s">
+        <v>58</v>
+      </c>
+      <c r="C456">
+        <v>60.494999999999997</v>
+      </c>
+      <c r="D456">
+        <v>29.434000000000001</v>
+      </c>
+      <c r="E456">
+        <v>252.905</v>
+      </c>
+      <c r="F456">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G456" t="s">
+        <v>8</v>
+      </c>
+      <c r="H456" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I456" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>2</v>
+      </c>
+      <c r="B457" t="s">
+        <v>58</v>
+      </c>
+      <c r="C457">
+        <v>89.98</v>
+      </c>
+      <c r="D457">
+        <v>40.603999999999999</v>
+      </c>
+      <c r="E457">
+        <v>254.99600000000001</v>
+      </c>
+      <c r="F457">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G457" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H457" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I457" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>3</v>
+      </c>
+      <c r="B458" t="s">
+        <v>58</v>
+      </c>
+      <c r="C458">
+        <v>48.081000000000003</v>
+      </c>
+      <c r="D458">
+        <v>22.172000000000001</v>
+      </c>
+      <c r="E458">
+        <v>92.332999999999998</v>
+      </c>
+      <c r="F458">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G458" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H458" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I458" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <v>4</v>
+      </c>
+      <c r="B459" t="s">
+        <v>58</v>
+      </c>
+      <c r="C459">
+        <v>73.186999999999998</v>
+      </c>
+      <c r="D459">
+        <v>39.332999999999998</v>
+      </c>
+      <c r="E459">
+        <v>112</v>
+      </c>
+      <c r="F459">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G459" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H459" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I459" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <v>5</v>
+      </c>
+      <c r="B460" t="s">
+        <v>58</v>
+      </c>
+      <c r="C460">
+        <v>38.47</v>
+      </c>
+      <c r="D460">
+        <v>14.903</v>
+      </c>
+      <c r="E460">
+        <v>132.333</v>
+      </c>
+      <c r="F460">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G460" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H460" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I460" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <v>6</v>
+      </c>
+      <c r="B461" t="s">
+        <v>58</v>
+      </c>
+      <c r="C461">
+        <v>71.162000000000006</v>
+      </c>
+      <c r="D461">
+        <v>35.499000000000002</v>
+      </c>
+      <c r="E461">
+        <v>125</v>
+      </c>
+      <c r="F461">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G461" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H461" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I461" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <v>7</v>
+      </c>
+      <c r="B462" t="s">
+        <v>58</v>
+      </c>
+      <c r="C462">
+        <v>45.75</v>
+      </c>
+      <c r="D462">
+        <v>29.844999999999999</v>
+      </c>
+      <c r="E462">
+        <v>153.41300000000001</v>
+      </c>
+      <c r="F462">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G462" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H462" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I462" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <v>8</v>
+      </c>
+      <c r="B463" t="s">
+        <v>58</v>
+      </c>
+      <c r="C463">
+        <v>34.912999999999997</v>
+      </c>
+      <c r="D463">
+        <v>12.992000000000001</v>
+      </c>
+      <c r="E463">
+        <v>137.89599999999999</v>
+      </c>
+      <c r="F463">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G463" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H463" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I463" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <v>9</v>
+      </c>
+      <c r="B464" t="s">
+        <v>58</v>
+      </c>
+      <c r="C464">
+        <v>72.385999999999996</v>
+      </c>
+      <c r="D464">
+        <v>44.658999999999999</v>
+      </c>
+      <c r="E464">
+        <v>109.441</v>
+      </c>
+      <c r="F464">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G464" t="s">
+        <v>36</v>
+      </c>
+      <c r="H464" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I464" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <v>1</v>
+      </c>
+      <c r="B465" t="s">
+        <v>58</v>
+      </c>
+      <c r="C465">
+        <v>83.47</v>
+      </c>
+      <c r="D465">
+        <v>52.183</v>
+      </c>
+      <c r="E465">
+        <v>247.398</v>
+      </c>
+      <c r="F465">
+        <v>0.65</v>
+      </c>
+      <c r="G465" t="s">
+        <v>13</v>
+      </c>
+      <c r="H465" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I465" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <v>2</v>
+      </c>
+      <c r="B466" t="s">
+        <v>58</v>
+      </c>
+      <c r="C466">
+        <v>83.554000000000002</v>
+      </c>
+      <c r="D466">
+        <v>52.110999999999997</v>
+      </c>
+      <c r="E466">
+        <v>164.285</v>
+      </c>
+      <c r="F466">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G466" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H466" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I466" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <v>3</v>
+      </c>
+      <c r="B467" t="s">
+        <v>58</v>
+      </c>
+      <c r="C467">
+        <v>88.792000000000002</v>
+      </c>
+      <c r="D467">
+        <v>48.933999999999997</v>
+      </c>
+      <c r="E467">
+        <v>152.869</v>
+      </c>
+      <c r="F467">
+        <v>0.27</v>
+      </c>
+      <c r="G467" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H467" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I467" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <v>4</v>
+      </c>
+      <c r="B468" t="s">
+        <v>58</v>
+      </c>
+      <c r="C468">
+        <v>79.826999999999998</v>
+      </c>
+      <c r="D468">
+        <v>56</v>
+      </c>
+      <c r="E468">
+        <v>130.75899999999999</v>
+      </c>
+      <c r="F468">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G468" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H468" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I468" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>58</v>
+      </c>
+      <c r="C469">
+        <v>100.944</v>
+      </c>
+      <c r="D469">
+        <v>43.011000000000003</v>
+      </c>
+      <c r="E469">
+        <v>186.08699999999999</v>
+      </c>
+      <c r="F469">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G469" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H469" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I469" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <v>6</v>
+      </c>
+      <c r="B470" t="s">
+        <v>58</v>
+      </c>
+      <c r="C470">
+        <v>92.81</v>
+      </c>
+      <c r="D470">
+        <v>50.555999999999997</v>
+      </c>
+      <c r="E470">
+        <v>254.31700000000001</v>
+      </c>
+      <c r="F470">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G470" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H470" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I470" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <v>7</v>
+      </c>
+      <c r="B471" t="s">
+        <v>58</v>
+      </c>
+      <c r="C471">
+        <v>99.841999999999999</v>
+      </c>
+      <c r="D471">
+        <v>55.332999999999998</v>
+      </c>
+      <c r="E471">
+        <v>139.95599999999999</v>
+      </c>
+      <c r="F471">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G471" t="s">
+        <v>22</v>
+      </c>
+      <c r="H471" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I471" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <v>1</v>
+      </c>
+      <c r="B472" t="s">
+        <v>58</v>
+      </c>
+      <c r="C472">
+        <v>34.715000000000003</v>
+      </c>
+      <c r="D472">
+        <v>11.134</v>
+      </c>
+      <c r="E472">
+        <v>225.41</v>
+      </c>
+      <c r="F472">
+        <v>1.052</v>
+      </c>
+      <c r="G472" t="s">
+        <v>32</v>
+      </c>
+      <c r="H472" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I472" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <v>2</v>
+      </c>
+      <c r="B473" t="s">
+        <v>58</v>
+      </c>
+      <c r="C473">
+        <v>40.232999999999997</v>
+      </c>
+      <c r="D473">
+        <v>30</v>
+      </c>
+      <c r="E473">
+        <v>49.305</v>
+      </c>
+      <c r="F473">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="G473" t="s">
+        <v>11</v>
+      </c>
+      <c r="H473" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I473" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>3</v>
+      </c>
+      <c r="B474" t="s">
+        <v>58</v>
+      </c>
+      <c r="C474">
+        <v>31.498000000000001</v>
+      </c>
+      <c r="D474">
+        <v>17.199000000000002</v>
+      </c>
+      <c r="E474">
+        <v>63.53</v>
+      </c>
+      <c r="F474">
+        <v>0.879</v>
+      </c>
+      <c r="G474" t="s">
+        <v>11</v>
+      </c>
+      <c r="H474" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I474" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>1</v>
+      </c>
+      <c r="B475" t="s">
+        <v>59</v>
+      </c>
+      <c r="C475">
+        <v>86.995999999999995</v>
+      </c>
+      <c r="D475">
+        <v>47.107999999999997</v>
+      </c>
+      <c r="E475">
+        <v>124.82299999999999</v>
+      </c>
+      <c r="F475">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G475" t="s">
+        <v>12</v>
+      </c>
+      <c r="H475" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I475" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>2</v>
+      </c>
+      <c r="B476" t="s">
+        <v>59</v>
+      </c>
+      <c r="C476">
+        <v>52.305999999999997</v>
+      </c>
+      <c r="D476">
+        <v>30.151</v>
+      </c>
+      <c r="E476">
+        <v>251.71299999999999</v>
+      </c>
+      <c r="F476">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G476" t="s">
+        <v>12</v>
+      </c>
+      <c r="H476" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I476" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>3</v>
+      </c>
+      <c r="B477" t="s">
+        <v>59</v>
+      </c>
+      <c r="C477">
+        <v>74.852999999999994</v>
+      </c>
+      <c r="D477">
+        <v>35.366</v>
+      </c>
+      <c r="E477">
+        <v>254.982</v>
+      </c>
+      <c r="F477">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G477" t="s">
+        <v>22</v>
+      </c>
+      <c r="H477" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I477" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>4</v>
+      </c>
+      <c r="B478" t="s">
+        <v>59</v>
+      </c>
+      <c r="C478">
+        <v>61.31</v>
+      </c>
+      <c r="D478">
+        <v>37.762</v>
+      </c>
+      <c r="E478">
+        <v>125.31399999999999</v>
+      </c>
+      <c r="F478">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G478" t="s">
+        <v>22</v>
+      </c>
+      <c r="H478" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I478" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>1</v>
+      </c>
+      <c r="B479" t="s">
+        <v>59</v>
+      </c>
+      <c r="C479">
+        <v>63.984000000000002</v>
+      </c>
+      <c r="D479">
+        <v>45.433999999999997</v>
+      </c>
+      <c r="E479">
+        <v>80.667000000000002</v>
+      </c>
+      <c r="F479">
+        <v>0.2</v>
+      </c>
+      <c r="G479" t="s">
+        <v>8</v>
+      </c>
+      <c r="H479" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I479" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>2</v>
+      </c>
+      <c r="B480" t="s">
+        <v>59</v>
+      </c>
+      <c r="C480">
+        <v>60.991</v>
+      </c>
+      <c r="D480">
+        <v>24.757999999999999</v>
+      </c>
+      <c r="E480">
+        <v>145.73699999999999</v>
+      </c>
+      <c r="F480">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G480" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H480" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I480" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>3</v>
+      </c>
+      <c r="B481" t="s">
+        <v>59</v>
+      </c>
+      <c r="C481">
+        <v>53.38</v>
+      </c>
+      <c r="D481">
+        <v>29.172000000000001</v>
+      </c>
+      <c r="E481">
+        <v>132.35599999999999</v>
+      </c>
+      <c r="F481">
+        <v>0.219</v>
+      </c>
+      <c r="G481" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H481" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I481" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>4</v>
+      </c>
+      <c r="B482" t="s">
+        <v>59</v>
+      </c>
+      <c r="C482">
+        <v>61.542000000000002</v>
+      </c>
+      <c r="D482">
+        <v>36.064</v>
+      </c>
+      <c r="E482">
+        <v>116.667</v>
+      </c>
+      <c r="F482">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G482" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H482" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I482" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>5</v>
+      </c>
+      <c r="B483" t="s">
+        <v>59</v>
+      </c>
+      <c r="C483">
+        <v>50.875999999999998</v>
+      </c>
+      <c r="D483">
+        <v>30.058</v>
+      </c>
+      <c r="E483">
+        <v>112.77</v>
+      </c>
+      <c r="F483">
+        <v>0.189</v>
+      </c>
+      <c r="G483" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H483" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I483" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>6</v>
+      </c>
+      <c r="B484" t="s">
+        <v>59</v>
+      </c>
+      <c r="C484">
+        <v>61.481000000000002</v>
+      </c>
+      <c r="D484">
+        <v>27.457999999999998</v>
+      </c>
+      <c r="E484">
+        <v>115.15300000000001</v>
+      </c>
+      <c r="F484">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G484" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H484" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I484" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>7</v>
+      </c>
+      <c r="B485" t="s">
+        <v>59</v>
+      </c>
+      <c r="C485">
+        <v>53.651000000000003</v>
+      </c>
+      <c r="D485">
+        <v>26.177</v>
+      </c>
+      <c r="E485">
+        <v>84.691000000000003</v>
+      </c>
+      <c r="F485">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G485" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H485" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I485" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>8</v>
+      </c>
+      <c r="B486" t="s">
+        <v>59</v>
+      </c>
+      <c r="C486">
+        <v>55.779000000000003</v>
+      </c>
+      <c r="D486">
+        <v>36.256</v>
+      </c>
+      <c r="E486">
+        <v>78.751000000000005</v>
+      </c>
+      <c r="F486">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G486" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H486" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I486" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>9</v>
+      </c>
+      <c r="B487" t="s">
+        <v>59</v>
+      </c>
+      <c r="C487">
+        <v>42.09</v>
+      </c>
+      <c r="D487">
+        <v>24.824999999999999</v>
+      </c>
+      <c r="E487">
+        <v>66.772000000000006</v>
+      </c>
+      <c r="F487">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G487" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H487" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I487" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>10</v>
+      </c>
+      <c r="B488" t="s">
+        <v>59</v>
+      </c>
+      <c r="C488">
+        <v>42.235999999999997</v>
+      </c>
+      <c r="D488">
+        <v>19.495999999999999</v>
+      </c>
+      <c r="E488">
+        <v>91.753</v>
+      </c>
+      <c r="F488">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G488" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H488" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I488" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>11</v>
+      </c>
+      <c r="B489" t="s">
+        <v>59</v>
+      </c>
+      <c r="C489">
+        <v>81.435000000000002</v>
+      </c>
+      <c r="D489">
+        <v>46</v>
+      </c>
+      <c r="E489">
+        <v>122.97799999999999</v>
+      </c>
+      <c r="F489">
+        <v>0.161</v>
+      </c>
+      <c r="G489" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H489" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I489" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>12</v>
+      </c>
+      <c r="B490" t="s">
+        <v>59</v>
+      </c>
+      <c r="C490">
+        <v>75.518000000000001</v>
+      </c>
+      <c r="D490">
+        <v>39.037999999999997</v>
+      </c>
+      <c r="E490">
+        <v>117.399</v>
+      </c>
+      <c r="F490">
+        <v>0.223</v>
+      </c>
+      <c r="G490" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H490" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I490" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>13</v>
+      </c>
+      <c r="B491" t="s">
+        <v>59</v>
+      </c>
+      <c r="C491">
+        <v>50.825000000000003</v>
+      </c>
+      <c r="D491">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="E491">
+        <v>94.42</v>
+      </c>
+      <c r="F491">
+        <v>0.19</v>
+      </c>
+      <c r="G491" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H491" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I491" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>14</v>
+      </c>
+      <c r="B492" t="s">
+        <v>59</v>
+      </c>
+      <c r="C492">
+        <v>76.501000000000005</v>
+      </c>
+      <c r="D492">
+        <v>39.554000000000002</v>
+      </c>
+      <c r="E492">
+        <v>254.83600000000001</v>
+      </c>
+      <c r="F492">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G492" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H492" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I492" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>15</v>
+      </c>
+      <c r="B493" t="s">
+        <v>59</v>
+      </c>
+      <c r="C493">
+        <v>41.274999999999999</v>
+      </c>
+      <c r="D493">
+        <v>21.635999999999999</v>
+      </c>
+      <c r="E493">
+        <v>108</v>
+      </c>
+      <c r="F493">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G493" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H493" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I493" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>16</v>
+      </c>
+      <c r="B494" t="s">
+        <v>59</v>
+      </c>
+      <c r="C494">
+        <v>56.475999999999999</v>
+      </c>
+      <c r="D494">
+        <v>26.166</v>
+      </c>
+      <c r="E494">
+        <v>134.41800000000001</v>
+      </c>
+      <c r="F494">
+        <v>0.217</v>
+      </c>
+      <c r="G494" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H494" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I494" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>17</v>
+      </c>
+      <c r="B495" t="s">
+        <v>59</v>
+      </c>
+      <c r="C495">
+        <v>50.088000000000001</v>
+      </c>
+      <c r="D495">
+        <v>22.736000000000001</v>
+      </c>
+      <c r="E495">
+        <v>80.572999999999993</v>
+      </c>
+      <c r="F495">
+        <v>0.31</v>
+      </c>
+      <c r="G495" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H495" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I495" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>18</v>
+      </c>
+      <c r="B496" t="s">
+        <v>59</v>
+      </c>
+      <c r="C496">
+        <v>68.296999999999997</v>
+      </c>
+      <c r="D496">
+        <v>21.475000000000001</v>
+      </c>
+      <c r="E496">
+        <v>131.26900000000001</v>
+      </c>
+      <c r="F496">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="G496" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H496" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I496" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <v>19</v>
+      </c>
+      <c r="B497" t="s">
+        <v>59</v>
+      </c>
+      <c r="C497">
+        <v>29.635000000000002</v>
+      </c>
+      <c r="D497">
+        <v>11.667</v>
+      </c>
+      <c r="E497">
+        <v>50.902999999999999</v>
+      </c>
+      <c r="F497">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="G497" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H497" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I497" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <v>20</v>
+      </c>
+      <c r="B498" t="s">
+        <v>59</v>
+      </c>
+      <c r="C498">
+        <v>39.305999999999997</v>
+      </c>
+      <c r="D498">
+        <v>21.667000000000002</v>
+      </c>
+      <c r="E498">
+        <v>101.97199999999999</v>
+      </c>
+      <c r="F498">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G498" t="s">
+        <v>11</v>
+      </c>
+      <c r="H498" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I498" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <v>21</v>
+      </c>
+      <c r="B499" t="s">
+        <v>59</v>
+      </c>
+      <c r="C499">
+        <v>37.801000000000002</v>
+      </c>
+      <c r="D499">
+        <v>21.501000000000001</v>
+      </c>
+      <c r="E499">
+        <v>74.087000000000003</v>
+      </c>
+      <c r="F499">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G499" t="s">
+        <v>11</v>
+      </c>
+      <c r="H499" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I499" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <v>22</v>
+      </c>
+      <c r="B500" t="s">
+        <v>59</v>
+      </c>
+      <c r="C500">
+        <v>44.56</v>
+      </c>
+      <c r="D500">
+        <v>21.327999999999999</v>
+      </c>
+      <c r="E500">
+        <v>130.333</v>
+      </c>
+      <c r="F500">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G500" t="s">
+        <v>11</v>
+      </c>
+      <c r="H500" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I500" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A501">
+        <v>1</v>
+      </c>
+      <c r="B501" t="s">
+        <v>59</v>
+      </c>
+      <c r="C501">
+        <v>70.058999999999997</v>
+      </c>
+      <c r="D501">
+        <v>42.790999999999997</v>
+      </c>
+      <c r="E501">
+        <v>97.397999999999996</v>
+      </c>
+      <c r="F501">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G501" t="s">
+        <v>9</v>
+      </c>
+      <c r="H501" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I501" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <v>2</v>
+      </c>
+      <c r="B502" t="s">
+        <v>59</v>
+      </c>
+      <c r="C502">
+        <v>29.981000000000002</v>
+      </c>
+      <c r="D502">
+        <v>16</v>
+      </c>
+      <c r="E502">
+        <v>68.332999999999998</v>
+      </c>
+      <c r="F502">
+        <v>0.441</v>
+      </c>
+      <c r="G502" t="s">
+        <v>9</v>
+      </c>
+      <c r="H502" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I502" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <v>1</v>
+      </c>
+      <c r="B503" t="s">
+        <v>59</v>
+      </c>
+      <c r="C503">
+        <v>39.671999999999997</v>
+      </c>
+      <c r="D503">
+        <v>30.346</v>
+      </c>
+      <c r="E503">
+        <v>131.53299999999999</v>
+      </c>
+      <c r="F503">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="G503" t="s">
+        <v>23</v>
+      </c>
+      <c r="H503" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I503" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <v>2</v>
+      </c>
+      <c r="B504" t="s">
+        <v>59</v>
+      </c>
+      <c r="C504">
+        <v>24.986000000000001</v>
+      </c>
+      <c r="D504">
+        <v>16.388999999999999</v>
+      </c>
+      <c r="E504">
+        <v>160.63999999999999</v>
+      </c>
+      <c r="F504">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="G504" t="s">
+        <v>23</v>
+      </c>
+      <c r="H504" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I504" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <v>3</v>
+      </c>
+      <c r="B505" t="s">
+        <v>59</v>
+      </c>
+      <c r="C505">
+        <v>55.561</v>
+      </c>
+      <c r="D505">
+        <v>32.387</v>
+      </c>
+      <c r="E505">
+        <v>105.071</v>
+      </c>
+      <c r="F505">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="G505" t="s">
+        <v>13</v>
+      </c>
+      <c r="H505" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I505" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <v>4</v>
+      </c>
+      <c r="B506" t="s">
+        <v>59</v>
+      </c>
+      <c r="C506">
+        <v>69.251000000000005</v>
+      </c>
+      <c r="D506">
+        <v>43.746000000000002</v>
+      </c>
+      <c r="E506">
+        <v>85.885000000000005</v>
+      </c>
+      <c r="F506">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G506" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H506" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I506" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <v>5</v>
+      </c>
+      <c r="B507" t="s">
+        <v>59</v>
+      </c>
+      <c r="C507">
+        <v>104.944</v>
+      </c>
+      <c r="D507">
+        <v>38.970999999999997</v>
+      </c>
+      <c r="E507">
+        <v>146.749</v>
+      </c>
+      <c r="F507">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G507" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H507" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I507" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <v>6</v>
+      </c>
+      <c r="B508" t="s">
+        <v>59</v>
+      </c>
+      <c r="C508">
+        <v>70.403999999999996</v>
+      </c>
+      <c r="D508">
+        <v>53.473999999999997</v>
+      </c>
+      <c r="E508">
+        <v>121.68600000000001</v>
+      </c>
+      <c r="F508">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G508" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H508" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I508" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <v>7</v>
+      </c>
+      <c r="B509" t="s">
+        <v>59</v>
+      </c>
+      <c r="C509">
+        <v>80.224999999999994</v>
+      </c>
+      <c r="D509">
+        <v>42.533000000000001</v>
+      </c>
+      <c r="E509">
+        <v>245.904</v>
+      </c>
+      <c r="F509">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G509" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H509" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I509" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <v>8</v>
+      </c>
+      <c r="B510" t="s">
+        <v>59</v>
+      </c>
+      <c r="C510">
+        <v>112.479</v>
+      </c>
+      <c r="D510">
+        <v>64</v>
+      </c>
+      <c r="E510">
+        <v>172.34399999999999</v>
+      </c>
+      <c r="F510">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G510" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H510" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I510" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <v>9</v>
+      </c>
+      <c r="B511" t="s">
+        <v>59</v>
+      </c>
+      <c r="C511">
+        <v>72.352000000000004</v>
+      </c>
+      <c r="D511">
+        <v>44.661000000000001</v>
+      </c>
+      <c r="E511">
+        <v>100.667</v>
+      </c>
+      <c r="F511">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G511" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H511" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I511" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <v>10</v>
+      </c>
+      <c r="B512" t="s">
+        <v>59</v>
+      </c>
+      <c r="C512">
+        <v>114.08</v>
+      </c>
+      <c r="D512">
+        <v>93.867000000000004</v>
+      </c>
+      <c r="E512">
+        <v>131.44</v>
+      </c>
+      <c r="F512">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G512" t="s">
+        <v>8</v>
+      </c>
+      <c r="H512" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I512" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <v>1</v>
+      </c>
+      <c r="B513" t="s">
+        <v>61</v>
+      </c>
+      <c r="C513">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="D513">
+        <v>39.755000000000003</v>
+      </c>
+      <c r="E513">
+        <v>108.974</v>
+      </c>
+      <c r="F513">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="G513" t="s">
+        <v>13</v>
+      </c>
+      <c r="H513" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I513" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <v>2</v>
+      </c>
+      <c r="B514" t="s">
+        <v>61</v>
+      </c>
+      <c r="C514">
+        <v>80.930999999999997</v>
+      </c>
+      <c r="D514">
+        <v>51.31</v>
+      </c>
+      <c r="E514">
+        <v>121.111</v>
+      </c>
+      <c r="F514">
+        <v>0.214</v>
+      </c>
+      <c r="G514" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H514" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I514" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <v>3</v>
+      </c>
+      <c r="B515" t="s">
+        <v>61</v>
+      </c>
+      <c r="C515">
+        <v>96.680999999999997</v>
+      </c>
+      <c r="D515">
+        <v>48.750999999999998</v>
+      </c>
+      <c r="E515">
+        <v>175.422</v>
+      </c>
+      <c r="F515">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G515" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H515" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I515" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <v>4</v>
+      </c>
+      <c r="B516" t="s">
+        <v>61</v>
+      </c>
+      <c r="C516">
+        <v>63.695</v>
+      </c>
+      <c r="D516">
+        <v>27</v>
+      </c>
+      <c r="E516">
+        <v>135.035</v>
+      </c>
+      <c r="F516">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="G516" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H516" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I516" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>5</v>
+      </c>
+      <c r="B517" t="s">
+        <v>61</v>
+      </c>
+      <c r="C517">
+        <v>83.182000000000002</v>
+      </c>
+      <c r="D517">
+        <v>42.682000000000002</v>
+      </c>
+      <c r="E517">
+        <v>134.92500000000001</v>
+      </c>
+      <c r="F517">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G517" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H517" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I517" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>6</v>
+      </c>
+      <c r="B518" t="s">
+        <v>61</v>
+      </c>
+      <c r="C518">
+        <v>84.456000000000003</v>
+      </c>
+      <c r="D518">
+        <v>61.182000000000002</v>
+      </c>
+      <c r="E518">
+        <v>134.46600000000001</v>
+      </c>
+      <c r="F518">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G518" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H518" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I518" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <v>7</v>
+      </c>
+      <c r="B519" t="s">
+        <v>61</v>
+      </c>
+      <c r="C519">
+        <v>96.100999999999999</v>
+      </c>
+      <c r="D519">
+        <v>55.561</v>
+      </c>
+      <c r="E519">
+        <v>150.76400000000001</v>
+      </c>
+      <c r="F519">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G519" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H519" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I519" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <v>8</v>
+      </c>
+      <c r="B520" t="s">
+        <v>61</v>
+      </c>
+      <c r="C520">
+        <v>70.245999999999995</v>
+      </c>
+      <c r="D520">
+        <v>39.509</v>
+      </c>
+      <c r="E520">
+        <v>142</v>
+      </c>
+      <c r="F520">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G520" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H520" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I520" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <v>9</v>
+      </c>
+      <c r="B521" t="s">
+        <v>61</v>
+      </c>
+      <c r="C521">
+        <v>98.364999999999995</v>
+      </c>
+      <c r="D521">
+        <v>67.974000000000004</v>
+      </c>
+      <c r="E521">
+        <v>143.322</v>
+      </c>
+      <c r="F521">
+        <v>0.245</v>
+      </c>
+      <c r="G521" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H521" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I521" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <v>1</v>
+      </c>
+      <c r="B522" t="s">
+        <v>61</v>
+      </c>
+      <c r="C522">
+        <v>74.847999999999999</v>
+      </c>
+      <c r="D522">
+        <v>33.258000000000003</v>
+      </c>
+      <c r="E522">
+        <v>254.52</v>
+      </c>
+      <c r="F522">
+        <v>0.379</v>
+      </c>
+      <c r="G522" t="s">
+        <v>22</v>
+      </c>
+      <c r="H522" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I522" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <v>2</v>
+      </c>
+      <c r="B523" t="s">
+        <v>61</v>
+      </c>
+      <c r="C523">
+        <v>81.668999999999997</v>
+      </c>
+      <c r="D523">
+        <v>57.097999999999999</v>
+      </c>
+      <c r="E523">
+        <v>157.06100000000001</v>
+      </c>
+      <c r="F523">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G523" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H523" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I523" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <v>3</v>
+      </c>
+      <c r="B524" t="s">
+        <v>61</v>
+      </c>
+      <c r="C524">
+        <v>82.043000000000006</v>
+      </c>
+      <c r="D524">
+        <v>42.15</v>
+      </c>
+      <c r="E524">
+        <v>121.831</v>
+      </c>
+      <c r="F524">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G524" t="s">
+        <v>12</v>
+      </c>
+      <c r="H524" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I524" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <v>4</v>
+      </c>
+      <c r="B525" t="s">
+        <v>61</v>
+      </c>
+      <c r="C525">
+        <v>26.355</v>
+      </c>
+      <c r="D525">
+        <v>16.902999999999999</v>
+      </c>
+      <c r="E525">
+        <v>45.796999999999997</v>
+      </c>
+      <c r="F525">
+        <v>0.151</v>
+      </c>
+      <c r="G525" t="s">
+        <v>47</v>
+      </c>
+      <c r="H525" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I525" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <v>5</v>
+      </c>
+      <c r="B526" t="s">
+        <v>61</v>
+      </c>
+      <c r="C526">
+        <v>39.201999999999998</v>
+      </c>
+      <c r="D526">
+        <v>25.34</v>
+      </c>
+      <c r="E526">
+        <v>77.332999999999998</v>
+      </c>
+      <c r="F526">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G526" t="s">
+        <v>49</v>
+      </c>
+      <c r="H526" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I526" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <v>1</v>
+      </c>
+      <c r="B527" t="s">
+        <v>61</v>
+      </c>
+      <c r="C527">
+        <v>71.52</v>
+      </c>
+      <c r="D527">
+        <v>20.236999999999998</v>
+      </c>
+      <c r="E527">
+        <v>125.361</v>
+      </c>
+      <c r="F527">
+        <v>0.312</v>
+      </c>
+      <c r="G527" t="s">
+        <v>8</v>
+      </c>
+      <c r="H527" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I527" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <v>2</v>
+      </c>
+      <c r="B528" t="s">
+        <v>61</v>
+      </c>
+      <c r="C528">
+        <v>48.118000000000002</v>
+      </c>
+      <c r="D528">
+        <v>20.734000000000002</v>
+      </c>
+      <c r="E528">
+        <v>131.667</v>
+      </c>
+      <c r="F528">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G528" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H528" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I528" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <v>3</v>
+      </c>
+      <c r="B529" t="s">
+        <v>61</v>
+      </c>
+      <c r="C529">
+        <v>45.252000000000002</v>
+      </c>
+      <c r="D529">
+        <v>22.777000000000001</v>
+      </c>
+      <c r="E529">
+        <v>111.51900000000001</v>
+      </c>
+      <c r="F529">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G529" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H529" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I529" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <v>4</v>
+      </c>
+      <c r="B530" t="s">
+        <v>61</v>
+      </c>
+      <c r="C530">
+        <v>75.748000000000005</v>
+      </c>
+      <c r="D530">
+        <v>33.414000000000001</v>
+      </c>
+      <c r="E530">
+        <v>251.69300000000001</v>
+      </c>
+      <c r="F530">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="G530" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H530" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I530" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <v>5</v>
+      </c>
+      <c r="B531" t="s">
+        <v>61</v>
+      </c>
+      <c r="C531">
+        <v>63.298000000000002</v>
+      </c>
+      <c r="D531">
+        <v>39.981999999999999</v>
+      </c>
+      <c r="E531">
+        <v>130.667</v>
+      </c>
+      <c r="F531">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G531" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H531" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I531" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <v>6</v>
+      </c>
+      <c r="B532" t="s">
+        <v>61</v>
+      </c>
+      <c r="C532">
+        <v>61.686</v>
+      </c>
+      <c r="D532">
+        <v>33.070999999999998</v>
+      </c>
+      <c r="E532">
+        <v>103.575</v>
+      </c>
+      <c r="F532">
+        <v>0.32</v>
+      </c>
+      <c r="G532" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H532" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I532" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <v>7</v>
+      </c>
+      <c r="B533" t="s">
+        <v>61</v>
+      </c>
+      <c r="C533">
+        <v>47.417999999999999</v>
+      </c>
+      <c r="D533">
+        <v>20.102</v>
+      </c>
+      <c r="E533">
+        <v>102.798</v>
+      </c>
+      <c r="F533">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G533" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H533" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I533" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <v>8</v>
+      </c>
+      <c r="B534" t="s">
+        <v>61</v>
+      </c>
+      <c r="C534">
+        <v>42.823999999999998</v>
+      </c>
+      <c r="D534">
+        <v>21.254999999999999</v>
+      </c>
+      <c r="E534">
+        <v>85.57</v>
+      </c>
+      <c r="F534">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G534" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H534" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I534" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <v>9</v>
+      </c>
+      <c r="B535" t="s">
+        <v>61</v>
+      </c>
+      <c r="C535">
+        <v>62.073</v>
+      </c>
+      <c r="D535">
+        <v>25.332999999999998</v>
+      </c>
+      <c r="E535">
+        <v>122.63200000000001</v>
+      </c>
+      <c r="F535">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G535" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H535" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I535" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <v>10</v>
+      </c>
+      <c r="B536" t="s">
+        <v>61</v>
+      </c>
+      <c r="C536">
+        <v>64.057000000000002</v>
+      </c>
+      <c r="D536">
+        <v>33.264000000000003</v>
+      </c>
+      <c r="E536">
+        <v>91.403000000000006</v>
+      </c>
+      <c r="F536">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G536" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H536" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I536" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <v>11</v>
+      </c>
+      <c r="B537" t="s">
+        <v>61</v>
+      </c>
+      <c r="C537">
+        <v>67.798000000000002</v>
+      </c>
+      <c r="D537">
+        <v>41.393000000000001</v>
+      </c>
+      <c r="E537">
+        <v>100.333</v>
+      </c>
+      <c r="F537">
+        <v>0.249</v>
+      </c>
+      <c r="G537" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H537" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I537" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <v>12</v>
+      </c>
+      <c r="B538" t="s">
+        <v>61</v>
+      </c>
+      <c r="C538">
+        <v>60.948999999999998</v>
+      </c>
+      <c r="D538">
+        <v>33.734999999999999</v>
+      </c>
+      <c r="E538">
+        <v>83.995000000000005</v>
+      </c>
+      <c r="F538">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G538" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H538" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I538" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <v>13</v>
+      </c>
+      <c r="B539" t="s">
+        <v>61</v>
+      </c>
+      <c r="C539">
+        <v>62.63</v>
+      </c>
+      <c r="D539">
+        <v>23.12</v>
+      </c>
+      <c r="E539">
+        <v>104.955</v>
+      </c>
+      <c r="F539">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G539" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H539" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I539" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <v>14</v>
+      </c>
+      <c r="B540" t="s">
+        <v>61</v>
+      </c>
+      <c r="C540">
+        <v>71.718999999999994</v>
+      </c>
+      <c r="D540">
+        <v>56.811999999999998</v>
+      </c>
+      <c r="E540">
+        <v>82.775000000000006</v>
+      </c>
+      <c r="F540">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G540" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H540" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I540" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <v>15</v>
+      </c>
+      <c r="B541" t="s">
+        <v>61</v>
+      </c>
+      <c r="C541">
+        <v>37.335999999999999</v>
+      </c>
+      <c r="D541">
+        <v>13.385</v>
+      </c>
+      <c r="E541">
+        <v>58.813000000000002</v>
+      </c>
+      <c r="F541">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G541" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H541" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I541" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <v>16</v>
+      </c>
+      <c r="B542" t="s">
+        <v>61</v>
+      </c>
+      <c r="C542">
+        <v>51.173000000000002</v>
+      </c>
+      <c r="D542">
+        <v>31.382000000000001</v>
+      </c>
+      <c r="E542">
+        <v>74.093000000000004</v>
+      </c>
+      <c r="F542">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G542" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H542" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I542" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <v>17</v>
+      </c>
+      <c r="B543" t="s">
+        <v>61</v>
+      </c>
+      <c r="C543">
+        <v>28.972999999999999</v>
+      </c>
+      <c r="D543">
+        <v>12.887</v>
+      </c>
+      <c r="E543">
+        <v>235.066</v>
+      </c>
+      <c r="F543">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G543" t="s">
+        <v>9</v>
+      </c>
+      <c r="H543" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I543" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <v>18</v>
+      </c>
+      <c r="B544" t="s">
+        <v>61</v>
+      </c>
+      <c r="C544">
+        <v>68.884</v>
+      </c>
+      <c r="D544">
+        <v>48.77</v>
+      </c>
+      <c r="E544">
+        <v>100.904</v>
+      </c>
+      <c r="F544">
+        <v>0.189</v>
+      </c>
+      <c r="G544" t="s">
+        <v>9</v>
+      </c>
+      <c r="H544" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I544" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <v>19</v>
+      </c>
+      <c r="B545" t="s">
+        <v>61</v>
+      </c>
+      <c r="C545">
+        <v>30.859000000000002</v>
+      </c>
+      <c r="D545">
+        <v>6.1859999999999999</v>
+      </c>
+      <c r="E545">
+        <v>252.09700000000001</v>
+      </c>
+      <c r="F545">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="G545" t="s">
+        <v>20</v>
+      </c>
+      <c r="H545" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I545" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <v>1</v>
+      </c>
+      <c r="B546" t="s">
+        <v>63</v>
+      </c>
+      <c r="C546">
+        <v>52.738</v>
+      </c>
+      <c r="D546">
+        <v>35.584000000000003</v>
+      </c>
+      <c r="E546">
+        <v>128.86000000000001</v>
+      </c>
+      <c r="F546">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G546" t="s">
+        <v>8</v>
+      </c>
+      <c r="H546" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I546" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <v>2</v>
+      </c>
+      <c r="B547" t="s">
+        <v>63</v>
+      </c>
+      <c r="C547">
+        <v>66.048000000000002</v>
+      </c>
+      <c r="D547">
+        <v>44.51</v>
+      </c>
+      <c r="E547">
+        <v>140.91399999999999</v>
+      </c>
+      <c r="F547">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G547" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H547" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I547" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <v>3</v>
+      </c>
+      <c r="B548" t="s">
+        <v>63</v>
+      </c>
+      <c r="C548">
+        <v>51.63</v>
+      </c>
+      <c r="D548">
+        <v>29.323</v>
+      </c>
+      <c r="E548">
+        <v>87.555999999999997</v>
+      </c>
+      <c r="F548">
+        <v>0.35</v>
+      </c>
+      <c r="G548" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H548" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I548" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <v>4</v>
+      </c>
+      <c r="B549" t="s">
+        <v>63</v>
+      </c>
+      <c r="C549">
+        <v>71.028000000000006</v>
+      </c>
+      <c r="D549">
+        <v>34.125</v>
+      </c>
+      <c r="E549">
+        <v>185.33600000000001</v>
+      </c>
+      <c r="F549">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G549" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H549" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I549" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <v>5</v>
+      </c>
+      <c r="B550" t="s">
+        <v>63</v>
+      </c>
+      <c r="C550">
+        <v>86.138999999999996</v>
+      </c>
+      <c r="D550">
+        <v>31.632000000000001</v>
+      </c>
+      <c r="E550">
+        <v>254.62899999999999</v>
+      </c>
+      <c r="F550">
+        <v>0.22</v>
+      </c>
+      <c r="G550" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H550" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I550" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <v>6</v>
+      </c>
+      <c r="B551" t="s">
+        <v>63</v>
+      </c>
+      <c r="C551">
+        <v>87.158000000000001</v>
+      </c>
+      <c r="D551">
+        <v>41.777000000000001</v>
+      </c>
+      <c r="E551">
+        <v>253.08199999999999</v>
+      </c>
+      <c r="F551">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G551" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H551" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I551" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <v>7</v>
+      </c>
+      <c r="B552" t="s">
+        <v>63</v>
+      </c>
+      <c r="C552">
+        <v>82.22</v>
+      </c>
+      <c r="D552">
+        <v>28.608000000000001</v>
+      </c>
+      <c r="E552">
+        <v>225.09700000000001</v>
+      </c>
+      <c r="F552">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G552" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H552" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I552" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <v>8</v>
+      </c>
+      <c r="B553" t="s">
+        <v>63</v>
+      </c>
+      <c r="C553">
+        <v>65.876999999999995</v>
+      </c>
+      <c r="D553">
+        <v>42.372</v>
+      </c>
+      <c r="E553">
+        <v>106.57299999999999</v>
+      </c>
+      <c r="F553">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G553" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H553" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I553" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A554">
+        <v>9</v>
+      </c>
+      <c r="B554" t="s">
+        <v>63</v>
+      </c>
+      <c r="C554">
+        <v>70.769000000000005</v>
+      </c>
+      <c r="D554">
+        <v>28.893000000000001</v>
+      </c>
+      <c r="E554">
+        <v>108.88500000000001</v>
+      </c>
+      <c r="F554">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G554" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H554" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I554" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A555">
+        <v>10</v>
+      </c>
+      <c r="B555" t="s">
+        <v>63</v>
+      </c>
+      <c r="C555">
+        <v>72.099000000000004</v>
+      </c>
+      <c r="D555">
+        <v>29.690999999999999</v>
+      </c>
+      <c r="E555">
+        <v>211</v>
+      </c>
+      <c r="F555">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G555" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H555" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I555" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A556">
+        <v>11</v>
+      </c>
+      <c r="B556" t="s">
+        <v>63</v>
+      </c>
+      <c r="C556">
+        <v>68.477000000000004</v>
+      </c>
+      <c r="D556">
+        <v>30.789000000000001</v>
+      </c>
+      <c r="E556">
+        <v>254.614</v>
+      </c>
+      <c r="F556">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G556" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H556" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I556" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <v>12</v>
+      </c>
+      <c r="B557" t="s">
+        <v>63</v>
+      </c>
+      <c r="C557">
+        <v>47.317</v>
+      </c>
+      <c r="D557">
+        <v>29.123000000000001</v>
+      </c>
+      <c r="E557">
+        <v>76.917000000000002</v>
+      </c>
+      <c r="F557">
+        <v>0.439</v>
+      </c>
+      <c r="G557" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H557" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I557" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <v>13</v>
+      </c>
+      <c r="B558" t="s">
+        <v>63</v>
+      </c>
+      <c r="C558">
+        <v>62.374000000000002</v>
+      </c>
+      <c r="D558">
+        <v>42.918999999999997</v>
+      </c>
+      <c r="E558">
+        <v>91.582999999999998</v>
+      </c>
+      <c r="F558">
+        <v>0.155</v>
+      </c>
+      <c r="G558" t="s">
+        <v>36</v>
+      </c>
+      <c r="H558" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I558" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <v>1</v>
+      </c>
+      <c r="B559" t="s">
+        <v>63</v>
+      </c>
+      <c r="C559">
+        <v>114.812</v>
+      </c>
+      <c r="D559">
+        <v>69.7</v>
+      </c>
+      <c r="E559">
+        <v>208.24299999999999</v>
+      </c>
+      <c r="F559">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G559" t="s">
+        <v>13</v>
+      </c>
+      <c r="H559" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I559" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <v>2</v>
+      </c>
+      <c r="B560" t="s">
+        <v>63</v>
+      </c>
+      <c r="C560">
+        <v>102.386</v>
+      </c>
+      <c r="D560">
+        <v>57.41</v>
+      </c>
+      <c r="E560">
+        <v>199.21</v>
+      </c>
+      <c r="F560">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G560" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H560" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I560" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <v>3</v>
+      </c>
+      <c r="B561" t="s">
+        <v>63</v>
+      </c>
+      <c r="C561">
+        <v>60.031999999999996</v>
+      </c>
+      <c r="D561">
+        <v>31.838000000000001</v>
+      </c>
+      <c r="E561">
+        <v>96.793000000000006</v>
+      </c>
+      <c r="F561">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G561" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H561" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I561" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <v>4</v>
+      </c>
+      <c r="B562" t="s">
+        <v>63</v>
+      </c>
+      <c r="C562">
+        <v>107.488</v>
+      </c>
+      <c r="D562">
+        <v>43.430999999999997</v>
+      </c>
+      <c r="E562">
+        <v>164.52799999999999</v>
+      </c>
+      <c r="F562">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G562" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H562" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I562" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <v>5</v>
+      </c>
+      <c r="B563" t="s">
+        <v>63</v>
+      </c>
+      <c r="C563">
+        <v>87.015000000000001</v>
+      </c>
+      <c r="D563">
+        <v>52.417000000000002</v>
+      </c>
+      <c r="E563">
+        <v>126.333</v>
+      </c>
+      <c r="F563">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G563" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H563" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I563" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <v>6</v>
+      </c>
+      <c r="B564" t="s">
+        <v>63</v>
+      </c>
+      <c r="C564">
+        <v>104.378</v>
+      </c>
+      <c r="D564">
+        <v>61.231999999999999</v>
+      </c>
+      <c r="E564">
+        <v>132.00299999999999</v>
+      </c>
+      <c r="F564">
+        <v>0.215</v>
+      </c>
+      <c r="G564" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H564" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I564" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <v>7</v>
+      </c>
+      <c r="B565" t="s">
+        <v>63</v>
+      </c>
+      <c r="C565">
+        <v>73.093999999999994</v>
+      </c>
+      <c r="D565">
+        <v>47.951000000000001</v>
+      </c>
+      <c r="E565">
+        <v>143.691</v>
+      </c>
+      <c r="F565">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G565" t="s">
+        <v>27</v>
+      </c>
+      <c r="H565" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I565" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <v>8</v>
+      </c>
+      <c r="B566" t="s">
+        <v>63</v>
+      </c>
+      <c r="C566">
+        <v>31.111999999999998</v>
+      </c>
+      <c r="D566">
+        <v>24.667000000000002</v>
+      </c>
+      <c r="E566">
+        <v>43.667000000000002</v>
+      </c>
+      <c r="F566">
+        <v>0.501</v>
+      </c>
+      <c r="G566" t="s">
+        <v>43</v>
+      </c>
+      <c r="H566" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I566" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <v>1</v>
+      </c>
+      <c r="B567" t="s">
+        <v>63</v>
+      </c>
+      <c r="C567">
+        <v>51.09</v>
+      </c>
+      <c r="D567">
+        <v>17.302</v>
+      </c>
+      <c r="E567">
+        <v>254.68600000000001</v>
+      </c>
+      <c r="F567">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="G567" t="s">
+        <v>11</v>
+      </c>
+      <c r="H567" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I567" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <v>2</v>
+      </c>
+      <c r="B568" t="s">
+        <v>63</v>
+      </c>
+      <c r="C568">
+        <v>27.649000000000001</v>
+      </c>
+      <c r="D568">
+        <v>8.0050000000000008</v>
+      </c>
+      <c r="E568">
+        <v>231.982</v>
+      </c>
+      <c r="F568">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="G568" t="s">
+        <v>11</v>
+      </c>
+      <c r="H568" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I568" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <v>3</v>
+      </c>
+      <c r="B569" t="s">
+        <v>63</v>
+      </c>
+      <c r="C569">
+        <v>67.855999999999995</v>
+      </c>
+      <c r="D569">
+        <v>50.61</v>
+      </c>
+      <c r="E569">
+        <v>98.025000000000006</v>
+      </c>
+      <c r="F569">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G569" t="s">
+        <v>11</v>
+      </c>
+      <c r="H569" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I569" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <v>4</v>
+      </c>
+      <c r="B570" t="s">
+        <v>63</v>
+      </c>
+      <c r="C570">
+        <v>37.091000000000001</v>
+      </c>
+      <c r="D570">
+        <v>19.667000000000002</v>
+      </c>
+      <c r="E570">
+        <v>143.87799999999999</v>
+      </c>
+      <c r="F570">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G570" t="s">
+        <v>11</v>
+      </c>
+      <c r="H570" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I570" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <v>1</v>
+      </c>
+      <c r="B571" t="s">
+        <v>64</v>
+      </c>
+      <c r="C571">
+        <v>60.054000000000002</v>
+      </c>
+      <c r="D571">
+        <v>36.445</v>
+      </c>
+      <c r="E571">
+        <v>93.353999999999999</v>
+      </c>
+      <c r="F571">
+        <v>0.31</v>
+      </c>
+      <c r="G571" t="s">
+        <v>8</v>
+      </c>
+      <c r="H571" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I571" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <v>2</v>
+      </c>
+      <c r="B572" t="s">
+        <v>64</v>
+      </c>
+      <c r="C572">
+        <v>54.787999999999997</v>
+      </c>
+      <c r="D572">
+        <v>33.377000000000002</v>
+      </c>
+      <c r="E572">
+        <v>87.385000000000005</v>
+      </c>
+      <c r="F572">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G572" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H572" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I572" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <v>3</v>
+      </c>
+      <c r="B573" t="s">
+        <v>64</v>
+      </c>
+      <c r="C573">
+        <v>53.825000000000003</v>
+      </c>
+      <c r="D573">
+        <v>34.51</v>
+      </c>
+      <c r="E573">
+        <v>113.333</v>
+      </c>
+      <c r="F573">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G573" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H573" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I573" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <v>4</v>
+      </c>
+      <c r="B574" t="s">
+        <v>64</v>
+      </c>
+      <c r="C574">
+        <v>49.414000000000001</v>
+      </c>
+      <c r="D574">
+        <v>37.040999999999997</v>
+      </c>
+      <c r="E574">
+        <v>66.483000000000004</v>
+      </c>
+      <c r="F574">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G574" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H574" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I574" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <v>5</v>
+      </c>
+      <c r="B575" t="s">
+        <v>64</v>
+      </c>
+      <c r="C575">
+        <v>57.319000000000003</v>
+      </c>
+      <c r="D575">
+        <v>37.384</v>
+      </c>
+      <c r="E575">
+        <v>80.968999999999994</v>
+      </c>
+      <c r="F575">
+        <v>0.23</v>
+      </c>
+      <c r="G575" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H575" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I575" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <v>6</v>
+      </c>
+      <c r="B576" t="s">
+        <v>64</v>
+      </c>
+      <c r="C576">
+        <v>61.037999999999997</v>
+      </c>
+      <c r="D576">
+        <v>19.512</v>
+      </c>
+      <c r="E576">
+        <v>107.333</v>
+      </c>
+      <c r="F576">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G576" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H576" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I576" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <v>7</v>
+      </c>
+      <c r="B577" t="s">
+        <v>64</v>
+      </c>
+      <c r="C577">
+        <v>48.354999999999997</v>
+      </c>
+      <c r="D577">
+        <v>16.428000000000001</v>
+      </c>
+      <c r="E577">
+        <v>143.244</v>
+      </c>
+      <c r="F577">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G577" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H577" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I577" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <v>8</v>
+      </c>
+      <c r="B578" t="s">
+        <v>64</v>
+      </c>
+      <c r="C578">
+        <v>58.426000000000002</v>
+      </c>
+      <c r="D578">
+        <v>22.9</v>
+      </c>
+      <c r="E578">
+        <v>130.667</v>
+      </c>
+      <c r="F578">
+        <v>0.19</v>
+      </c>
+      <c r="G578" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H578" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I578" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <v>9</v>
+      </c>
+      <c r="B579" t="s">
+        <v>64</v>
+      </c>
+      <c r="C579">
+        <v>68.561000000000007</v>
+      </c>
+      <c r="D579">
+        <v>40</v>
+      </c>
+      <c r="E579">
+        <v>136.22999999999999</v>
+      </c>
+      <c r="F579">
+        <v>0.184</v>
+      </c>
+      <c r="G579" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H579" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I579" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <v>10</v>
+      </c>
+      <c r="B580" t="s">
+        <v>64</v>
+      </c>
+      <c r="C580">
+        <v>48.768000000000001</v>
+      </c>
+      <c r="D580">
+        <v>26.934999999999999</v>
+      </c>
+      <c r="E580">
+        <v>73.849000000000004</v>
+      </c>
+      <c r="F580">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G580" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H580" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I580" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <v>11</v>
+      </c>
+      <c r="B581" t="s">
+        <v>64</v>
+      </c>
+      <c r="C581">
+        <v>33.929000000000002</v>
+      </c>
+      <c r="D581">
+        <v>16.25</v>
+      </c>
+      <c r="E581">
+        <v>62.11</v>
+      </c>
+      <c r="F581">
+        <v>0.43</v>
+      </c>
+      <c r="G581" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H581" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I581" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <v>12</v>
+      </c>
+      <c r="B582" t="s">
+        <v>64</v>
+      </c>
+      <c r="C582">
+        <v>46.826999999999998</v>
+      </c>
+      <c r="D582">
+        <v>29.471</v>
+      </c>
+      <c r="E582">
+        <v>68.733000000000004</v>
+      </c>
+      <c r="F582">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G582" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H582" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I582" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <v>13</v>
+      </c>
+      <c r="B583" t="s">
+        <v>64</v>
+      </c>
+      <c r="C583">
+        <v>84.832999999999998</v>
+      </c>
+      <c r="D583">
+        <v>64.063000000000002</v>
+      </c>
+      <c r="E583">
+        <v>127.13800000000001</v>
+      </c>
+      <c r="F583">
+        <v>0.129</v>
+      </c>
+      <c r="G583" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H583" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I583" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <v>14</v>
+      </c>
+      <c r="B584" t="s">
+        <v>64</v>
+      </c>
+      <c r="C584">
+        <v>47.889000000000003</v>
+      </c>
+      <c r="D584">
+        <v>18.335999999999999</v>
+      </c>
+      <c r="E584">
+        <v>95</v>
+      </c>
+      <c r="F584">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G584" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H584" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I584" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <v>15</v>
+      </c>
+      <c r="B585" t="s">
+        <v>64</v>
+      </c>
+      <c r="C585">
+        <v>46.472999999999999</v>
+      </c>
+      <c r="D585">
+        <v>22.221</v>
+      </c>
+      <c r="E585">
+        <v>83.584999999999994</v>
+      </c>
+      <c r="F585">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G585" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H585" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I585" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <v>16</v>
+      </c>
+      <c r="B586" t="s">
+        <v>64</v>
+      </c>
+      <c r="C586">
+        <v>51.31</v>
+      </c>
+      <c r="D586">
+        <v>31.998999999999999</v>
+      </c>
+      <c r="E586">
+        <v>135</v>
+      </c>
+      <c r="F586">
+        <v>0.27</v>
+      </c>
+      <c r="G586" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H586" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I586" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <v>17</v>
+      </c>
+      <c r="B587" t="s">
+        <v>64</v>
+      </c>
+      <c r="C587">
+        <v>62.688000000000002</v>
+      </c>
+      <c r="D587">
+        <v>21.960999999999999</v>
+      </c>
+      <c r="E587">
+        <v>140.21700000000001</v>
+      </c>
+      <c r="F587">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G587" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H587" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I587" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <v>18</v>
+      </c>
+      <c r="B588" t="s">
+        <v>64</v>
+      </c>
+      <c r="C588">
+        <v>36.398000000000003</v>
+      </c>
+      <c r="D588">
+        <v>15.333</v>
+      </c>
+      <c r="E588">
+        <v>114</v>
+      </c>
+      <c r="F588">
+        <v>0.872</v>
+      </c>
+      <c r="G588" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H588" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I588" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <v>19</v>
+      </c>
+      <c r="B589" t="s">
+        <v>64</v>
+      </c>
+      <c r="C589">
+        <v>88.525999999999996</v>
+      </c>
+      <c r="D589">
+        <v>52.116999999999997</v>
+      </c>
+      <c r="E589">
+        <v>121.565</v>
+      </c>
+      <c r="F589">
+        <v>0.106</v>
+      </c>
+      <c r="G589" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H589" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I589" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <v>20</v>
+      </c>
+      <c r="B590" t="s">
+        <v>64</v>
+      </c>
+      <c r="C590">
+        <v>50.378</v>
+      </c>
+      <c r="D590">
+        <v>39.829000000000001</v>
+      </c>
+      <c r="E590">
+        <v>64.718000000000004</v>
+      </c>
+      <c r="F590">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G590" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H590" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I590" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <v>21</v>
+      </c>
+      <c r="B591" t="s">
+        <v>64</v>
+      </c>
+      <c r="C591">
+        <v>43.113999999999997</v>
+      </c>
+      <c r="D591">
+        <v>30.521999999999998</v>
+      </c>
+      <c r="E591">
+        <v>120.518</v>
+      </c>
+      <c r="F591">
+        <v>0.154</v>
+      </c>
+      <c r="G591" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H591" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I591" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <v>22</v>
+      </c>
+      <c r="B592" t="s">
+        <v>64</v>
+      </c>
+      <c r="C592">
+        <v>50.177</v>
+      </c>
+      <c r="D592">
+        <v>28.722999999999999</v>
+      </c>
+      <c r="E592">
+        <v>79.215000000000003</v>
+      </c>
+      <c r="F592">
+        <v>0.309</v>
+      </c>
+      <c r="G592" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H592" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I592" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <v>23</v>
+      </c>
+      <c r="B593" t="s">
+        <v>64</v>
+      </c>
+      <c r="C593">
+        <v>45.317999999999998</v>
+      </c>
+      <c r="D593">
+        <v>24.257999999999999</v>
+      </c>
+      <c r="E593">
+        <v>85.671999999999997</v>
+      </c>
+      <c r="F593">
+        <v>0.253</v>
+      </c>
+      <c r="G593" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H593" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I593" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <v>24</v>
+      </c>
+      <c r="B594" t="s">
+        <v>64</v>
+      </c>
+      <c r="C594">
+        <v>56.98</v>
+      </c>
+      <c r="D594">
+        <v>32.319000000000003</v>
+      </c>
+      <c r="E594">
+        <v>109.765</v>
+      </c>
+      <c r="F594">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G594" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H594" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I594" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <v>25</v>
+      </c>
+      <c r="B595" t="s">
+        <v>64</v>
+      </c>
+      <c r="C595">
+        <v>51.073</v>
+      </c>
+      <c r="D595">
+        <v>17.95</v>
+      </c>
+      <c r="E595">
+        <v>85.438999999999993</v>
+      </c>
+      <c r="F595">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="G595" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H595" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I595" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <v>26</v>
+      </c>
+      <c r="B596" t="s">
+        <v>64</v>
+      </c>
+      <c r="C596">
+        <v>54.298999999999999</v>
+      </c>
+      <c r="D596">
+        <v>30.632999999999999</v>
+      </c>
+      <c r="E596">
+        <v>78.664000000000001</v>
+      </c>
+      <c r="F596">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G596" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H596" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I596" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <v>27</v>
+      </c>
+      <c r="B597" t="s">
+        <v>64</v>
+      </c>
+      <c r="C597">
+        <v>64.745999999999995</v>
+      </c>
+      <c r="D597">
+        <v>29.282</v>
+      </c>
+      <c r="E597">
+        <v>86.344999999999999</v>
+      </c>
+      <c r="F597">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G597" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H597" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I597" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <v>28</v>
+      </c>
+      <c r="B598" t="s">
+        <v>64</v>
+      </c>
+      <c r="C598">
+        <v>56.256999999999998</v>
+      </c>
+      <c r="D598">
+        <v>26.145</v>
+      </c>
+      <c r="E598">
+        <v>72.606999999999999</v>
+      </c>
+      <c r="F598">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G598" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H598" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I598" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <v>29</v>
+      </c>
+      <c r="B599" t="s">
+        <v>64</v>
+      </c>
+      <c r="C599">
+        <v>62.79</v>
+      </c>
+      <c r="D599">
+        <v>41.332999999999998</v>
+      </c>
+      <c r="E599">
+        <v>76.406999999999996</v>
+      </c>
+      <c r="F599">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G599" t="s">
+        <v>36</v>
+      </c>
+      <c r="H599" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I599" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <v>1</v>
+      </c>
+      <c r="B600" t="s">
+        <v>64</v>
+      </c>
+      <c r="C600">
+        <v>23.864000000000001</v>
+      </c>
+      <c r="D600">
+        <v>15.8</v>
+      </c>
+      <c r="E600">
+        <v>106.333</v>
+      </c>
+      <c r="F600">
+        <v>0.498</v>
+      </c>
+      <c r="G600" t="s">
+        <v>43</v>
+      </c>
+      <c r="H600" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I600" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <v>2</v>
+      </c>
+      <c r="B601" t="s">
+        <v>64</v>
+      </c>
+      <c r="C601">
+        <v>60.482999999999997</v>
+      </c>
+      <c r="D601">
+        <v>34.895000000000003</v>
+      </c>
+      <c r="E601">
+        <v>127.979</v>
+      </c>
+      <c r="F601">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G601" t="s">
+        <v>27</v>
+      </c>
+      <c r="H601" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I601" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <v>3</v>
+      </c>
+      <c r="B602" t="s">
+        <v>64</v>
+      </c>
+      <c r="C602">
+        <v>33.281999999999996</v>
+      </c>
+      <c r="D602">
+        <v>11.333</v>
+      </c>
+      <c r="E602">
+        <v>141.899</v>
+      </c>
+      <c r="F602">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G602" t="s">
+        <v>20</v>
+      </c>
+      <c r="H602" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I602" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <v>4</v>
+      </c>
+      <c r="B603" t="s">
+        <v>64</v>
+      </c>
+      <c r="C603">
+        <v>94.638000000000005</v>
+      </c>
+      <c r="D603">
+        <v>54.244</v>
+      </c>
+      <c r="E603">
+        <v>135.12</v>
+      </c>
+      <c r="F603">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="G603" t="s">
+        <v>12</v>
+      </c>
+      <c r="H603" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I603" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <v>5</v>
+      </c>
+      <c r="B604" t="s">
+        <v>64</v>
+      </c>
+      <c r="C604">
+        <v>40.014000000000003</v>
+      </c>
+      <c r="D604">
+        <v>23.800999999999998</v>
+      </c>
+      <c r="E604">
+        <v>100.804</v>
+      </c>
+      <c r="F604">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G604" t="s">
+        <v>49</v>
+      </c>
+      <c r="H604" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I604" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <v>6</v>
+      </c>
+      <c r="B605" t="s">
+        <v>64</v>
+      </c>
+      <c r="C605">
+        <v>27.919</v>
+      </c>
+      <c r="D605">
+        <v>10.911</v>
+      </c>
+      <c r="E605">
+        <v>77.843999999999994</v>
+      </c>
+      <c r="F605">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G605" t="s">
+        <v>11</v>
+      </c>
+      <c r="H605" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I605" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <v>1</v>
+      </c>
+      <c r="B606" t="s">
+        <v>64</v>
+      </c>
+      <c r="C606">
+        <v>84.495999999999995</v>
+      </c>
+      <c r="D606">
+        <v>56.631999999999998</v>
+      </c>
+      <c r="E606">
+        <v>131.453</v>
+      </c>
+      <c r="F606">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G606" t="s">
+        <v>13</v>
+      </c>
+      <c r="H606" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I606" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <v>2</v>
+      </c>
+      <c r="B607" t="s">
+        <v>64</v>
+      </c>
+      <c r="C607">
+        <v>70.745999999999995</v>
+      </c>
+      <c r="D607">
+        <v>28.199000000000002</v>
+      </c>
+      <c r="E607">
+        <v>91.024000000000001</v>
+      </c>
+      <c r="F607">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="G607" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H607" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I607" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <v>3</v>
+      </c>
+      <c r="B608" t="s">
+        <v>64</v>
+      </c>
+      <c r="C608">
+        <v>95.260999999999996</v>
+      </c>
+      <c r="D608">
+        <v>67.358999999999995</v>
+      </c>
+      <c r="E608">
+        <v>149.352</v>
+      </c>
+      <c r="F608">
+        <v>0.32</v>
+      </c>
+      <c r="G608" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H608" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I608" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <v>4</v>
+      </c>
+      <c r="B609" t="s">
+        <v>64</v>
+      </c>
+      <c r="C609">
+        <v>94.972999999999999</v>
+      </c>
+      <c r="D609">
+        <v>64.048000000000002</v>
+      </c>
+      <c r="E609">
+        <v>130.619</v>
+      </c>
+      <c r="F609">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G609" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H609" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I609" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <v>5</v>
+      </c>
+      <c r="B610" t="s">
+        <v>64</v>
+      </c>
+      <c r="C610">
+        <v>106.38</v>
+      </c>
+      <c r="D610">
+        <v>67.731999999999999</v>
+      </c>
+      <c r="E610">
+        <v>136.42099999999999</v>
+      </c>
+      <c r="F610">
+        <v>0.151</v>
+      </c>
+      <c r="G610" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H610" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I610" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <v>6</v>
+      </c>
+      <c r="B611" t="s">
+        <v>64</v>
+      </c>
+      <c r="C611">
+        <v>77.111000000000004</v>
+      </c>
+      <c r="D611">
+        <v>34.542000000000002</v>
+      </c>
+      <c r="E611">
+        <v>142.44999999999999</v>
+      </c>
+      <c r="F611">
+        <v>0.128</v>
+      </c>
+      <c r="G611" t="s">
+        <v>8</v>
+      </c>
+      <c r="H611" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I611" s="13">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
